--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB15E3-C015-4B4B-87C0-1619EE0915E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23FDBE2-C358-0A43-AC58-07BA80106052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="-11860" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -49,37 +49,43 @@
     <t>Synonyms</t>
   </si>
   <si>
+    <t>Cross reference</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>Examples of usage</t>
   </si>
   <si>
+    <t>E-CigO</t>
+  </si>
+  <si>
     <t>Fuzzy set</t>
   </si>
   <si>
-    <t>E-CigO</t>
+    <t>Why fuzzy</t>
+  </si>
+  <si>
+    <t>Curator</t>
   </si>
   <si>
     <t>Curation status</t>
   </si>
   <si>
-    <t>Why fuzzy</t>
-  </si>
-  <si>
-    <t>Cross reference</t>
+    <t>To be reviewed by</t>
   </si>
   <si>
     <t>ENVO:00002221</t>
   </si>
   <si>
-    <t>Shop</t>
+    <t>shop</t>
   </si>
   <si>
     <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
   </si>
   <si>
-    <t>Commercial building</t>
+    <t>commercial building</t>
   </si>
   <si>
     <t>Material entity</t>
@@ -97,13 +103,10 @@
     <t>ADDICTO:0000440</t>
   </si>
   <si>
-    <t>Vape shop</t>
+    <t>vape shop</t>
   </si>
   <si>
     <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-  </si>
-  <si>
-    <t>shop</t>
   </si>
   <si>
     <t>Independent continuant</t>
@@ -112,13 +115,13 @@
     <t>ADDICTO:0000441</t>
   </si>
   <si>
-    <t>Academic emergency department facility</t>
+    <t>academic emergency department facility</t>
   </si>
   <si>
     <t>An emergency department facility that is part of a university hospital.</t>
   </si>
   <si>
-    <t>Emergency department facility</t>
+    <t>emergency department facility</t>
   </si>
   <si>
     <t>No appropriate definition found. Definition based on usage.</t>
@@ -127,13 +130,13 @@
     <t>ADDICTO:0000442</t>
   </si>
   <si>
-    <t>Access to a product</t>
+    <t>access to a product</t>
   </si>
   <si>
     <t>A personal role that is the extent to which a person can acquire a product.</t>
   </si>
   <si>
-    <t>Personal role</t>
+    <t>personal role</t>
   </si>
   <si>
     <t>Role</t>
@@ -142,7 +145,7 @@
     <t>ADDICTO:0000443</t>
   </si>
   <si>
-    <t>Accessibility of a product</t>
+    <t>accessibility of a product</t>
   </si>
   <si>
     <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
@@ -157,7 +160,7 @@
     <t>ADDICTO:0000444</t>
   </si>
   <si>
-    <t>Accessibility of a service</t>
+    <t>accessibility of a service</t>
   </si>
   <si>
     <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
@@ -166,7 +169,7 @@
     <t>ADDICTO:0000445</t>
   </si>
   <si>
-    <t>Accessibility of heroin</t>
+    <t>accessibility of heroin</t>
   </si>
   <si>
     <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire heroin.</t>
@@ -178,19 +181,19 @@
     <t>ADDICTO:0000446</t>
   </si>
   <si>
-    <t>Accessibility of opioid agonist therapy</t>
+    <t>accessibility of opioid agonist therapy</t>
   </si>
   <si>
     <t>An environmental disposition that is is the extent to which an environment enables people in that environment to receive opioid agonist therapy</t>
   </si>
   <si>
-    <t>Accessibility of addiction treatment</t>
+    <t>accessibility of addiction treatment</t>
   </si>
   <si>
     <t>ADDICTO:0000447</t>
   </si>
   <si>
-    <t>Acute medical unit</t>
+    <t>acute medical unit</t>
   </si>
   <si>
     <t>A health care facility that a dedicated facility within a hospital that acts as the focus for acute medical care for patients that have presented as medical emergencies to hospitals or who have developed an acute medical illness while in hospital.</t>
@@ -202,91 +205,76 @@
     <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
   </si>
   <si>
-    <t>Acute medical ward</t>
-  </si>
-  <si>
-    <t>Addiction clinic</t>
-  </si>
-  <si>
-    <t>Affordable Care Act Medicaid expansion state</t>
+    <t>addiction clinic</t>
   </si>
   <si>
     <t>ADDICTO:0000448</t>
   </si>
   <si>
-    <t>Alcohol availability for purchase in a geographical area</t>
+    <t>alcohol availability for purchase in a geographical area</t>
   </si>
   <si>
     <t>A quality of a geographical area relating to the ease with which alcohol can be purchased in that area.</t>
   </si>
   <si>
-    <t>Substance availability for purchase in a geographical area.</t>
+    <t>substance availability for purchase in a geographical area.</t>
   </si>
   <si>
     <t>Specifically dependent continuant</t>
   </si>
   <si>
-    <t>Alcohol availability</t>
+    <t>alcohol outlet density</t>
   </si>
   <si>
-    <t>Alcohol outlet density</t>
+    <t>antenatal clinic</t>
   </si>
   <si>
-    <t>Antenatal clinic</t>
+    <t>bar serving alcohol</t>
   </si>
   <si>
-    <t>Bar serving alcohol</t>
+    <t>canada</t>
   </si>
   <si>
-    <t>Bar</t>
+    <t>cigarette cue</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>cigarette smoking cue</t>
   </si>
   <si>
-    <t>Cigarette cue</t>
+    <t>clinical setting</t>
   </si>
   <si>
-    <t>Cigarette smoking cue</t>
+    <t>community setting</t>
   </si>
   <si>
-    <t>Clinical setting</t>
+    <t>county</t>
   </si>
   <si>
-    <t>Community setting</t>
+    <t>critical care unit</t>
   </si>
   <si>
-    <t>County</t>
+    <t>decade</t>
   </si>
   <si>
-    <t>Critical care unit</t>
+    <t>developed English-speaking country</t>
   </si>
   <si>
-    <t>Decade</t>
+    <t>dispensary facility</t>
   </si>
   <si>
-    <t>Developed English-speaking country</t>
+    <t>district general hospital</t>
   </si>
   <si>
-    <t>Dispensary facility</t>
+    <t>drinking context</t>
   </si>
   <si>
-    <t>Dispensary</t>
-  </si>
-  <si>
-    <t>District general hospital</t>
-  </si>
-  <si>
-    <t>Drinking context</t>
-  </si>
-  <si>
-    <t>Drinking occasion</t>
+    <t>drinking occasion</t>
   </si>
   <si>
     <t>ADDICTO:0000449</t>
   </si>
   <si>
-    <t>Economic development</t>
+    <t>economic development</t>
   </si>
   <si>
     <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
@@ -301,13 +289,13 @@
     <t>https://en.wikipedia.org/wiki/Economic_development</t>
   </si>
   <si>
-    <t>Economic recession</t>
+    <t>economic recession</t>
   </si>
   <si>
     <t>OMRSE_00000114</t>
   </si>
   <si>
-    <t>Emergency Department facility</t>
+    <t>emergency Department facility</t>
   </si>
   <si>
     <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
@@ -316,10 +304,13 @@
     <t>Discussed</t>
   </si>
   <si>
-    <t>English-speaking country</t>
+    <t>english-speaking country</t>
   </si>
   <si>
     <t>ADDICTO:0000450</t>
+  </si>
+  <si>
+    <t>environmental system</t>
   </si>
   <si>
     <t>A system which has the disposition to environ one or more material entities.</t>
@@ -331,124 +322,115 @@
     <t>System</t>
   </si>
   <si>
-    <t>Environment</t>
+    <t>geographical census region</t>
   </si>
   <si>
-    <t>Geographical census region</t>
+    <t>habitat</t>
   </si>
   <si>
-    <t>Habitat</t>
+    <t>harm reduction facility</t>
   </si>
   <si>
-    <t>Harm reduction facility</t>
-  </si>
-  <si>
-    <t>Health and social care facility</t>
+    <t>health and social care facility</t>
   </si>
   <si>
     <t>OMRSE:00000102</t>
   </si>
   <si>
-    <t>Healthcare facility</t>
+    <t>healthcare facility</t>
   </si>
   <si>
     <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
   </si>
   <si>
-    <t>Facility</t>
+    <t>facility</t>
   </si>
   <si>
-    <t>Hospital</t>
+    <t>hospital</t>
   </si>
   <si>
-    <t>Hospital inpatient facility</t>
+    <t>hospital inpatient facility</t>
   </si>
   <si>
-    <t>Hospital-based outpatient clinic</t>
+    <t>hospital-based outpatient clinic</t>
   </si>
   <si>
-    <t>Laboratory</t>
+    <t>laboratory</t>
   </si>
   <si>
     <t>ADDICTO:0000524</t>
   </si>
   <si>
-    <t>Law</t>
+    <t>law</t>
   </si>
   <si>
-    <t>Local neighbourhood</t>
+    <t>local neighbourhood</t>
   </si>
   <si>
-    <t>Low- and middle-income country</t>
+    <t>low- and middle-income country</t>
   </si>
   <si>
     <t>LMIC</t>
   </si>
   <si>
-    <t>Low-regulation environment</t>
+    <t>low-regulation environment</t>
   </si>
   <si>
-    <t>Masculine space</t>
+    <t>masculine space</t>
   </si>
   <si>
-    <t>National level</t>
+    <t>national level</t>
   </si>
   <si>
-    <t>Natural living conditions</t>
+    <t>natural living conditions</t>
   </si>
   <si>
-    <t>Neighbourhood</t>
+    <t>neighbourhood</t>
   </si>
   <si>
-    <t>Nightclub</t>
+    <t>nightclub</t>
   </si>
   <si>
-    <t>Non-critical care unit</t>
+    <t>non-critical care unit</t>
   </si>
   <si>
-    <t>Opportunity</t>
+    <t>opportunity</t>
   </si>
   <si>
-    <t>Opportunity for substance use</t>
+    <t>opportunity for substance use</t>
   </si>
   <si>
-    <t>Outpatient addiction clinic</t>
+    <t>outpatient addiction clinic</t>
   </si>
   <si>
-    <t>Out-patient clinic</t>
+    <t>out-patient clinic</t>
   </si>
   <si>
-    <t>Outpatient facility</t>
+    <t>outpatient facility</t>
   </si>
   <si>
-    <t>Outpatient clinic</t>
+    <t>overdose prevention site</t>
   </si>
   <si>
-    <t>Overdose prevention site</t>
+    <t>presence of other smokers</t>
   </si>
   <si>
-    <t>Presence of other smokers</t>
+    <t>private premises</t>
   </si>
   <si>
-    <t>Private premises</t>
+    <t>public house</t>
   </si>
   <si>
-    <t>Public house</t>
+    <t>real-world drinking enviornment</t>
   </si>
   <si>
-    <t>Pub</t>
-  </si>
-  <si>
-    <t>Real-world drinking enviornment</t>
-  </si>
-  <si>
-    <t>Semi-naturalistic laboratory</t>
+    <t>semi-naturalistic laboratory</t>
   </si>
   <si>
     <t>ADDICTO:0000451</t>
   </si>
   <si>
-    <t>Setting</t>
+    <t>setting</t>
   </si>
   <si>
     <t>A role that an environment has by virtue of environing a material entity or a process.</t>
@@ -460,55 +442,73 @@
     <t>This should align with setting in BCIO</t>
   </si>
   <si>
-    <t>Smoke-free legislation</t>
+    <t>smoke-free legislation</t>
   </si>
   <si>
-    <t>Social environment</t>
+    <t>social environment</t>
   </si>
   <si>
     <t>Is this part of the setting that explicitly relates to people?</t>
   </si>
   <si>
-    <t>Social setting</t>
+    <t>social housing</t>
   </si>
   <si>
-    <t>Social housing</t>
+    <t>socially disadvantaged area</t>
   </si>
   <si>
-    <t>Socially disadvantaged area</t>
+    <t>specialized addiction care facility</t>
   </si>
   <si>
-    <t>Specialized addiction care facility</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>urban setting</t>
+  </si>
+  <si>
+    <t>urbanicity</t>
+  </si>
+  <si>
+    <t>western European country</t>
+  </si>
+  <si>
+    <t>Affordable Care Act Medicaid expansion state</t>
   </si>
   <si>
     <t>STI outpatient clinic</t>
   </si>
   <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
     <t>TB treatment centre</t>
-  </si>
-  <si>
-    <t>Urban setting</t>
-  </si>
-  <si>
-    <t>Urbanicity</t>
   </si>
   <si>
     <t>US State</t>
   </si>
   <si>
-    <t>State</t>
+    <t>acute medical ward</t>
   </si>
   <si>
-    <t>Western European country</t>
+    <t>alcohol availability</t>
   </si>
   <si>
-    <t>Curator</t>
+    <t>bar</t>
   </si>
   <si>
-    <t>To be reviewed by</t>
+    <t>dispensary</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>outpatient clinic</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>social setting</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,8 +1063,8 @@
     <col min="16" max="16" width="9.1640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="4" customWidth="1"/>
     <col min="18" max="18" width="24.6640625" style="4" customWidth="1"/>
-    <col min="19" max="21" width="9.1640625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="9.1640625" style="4"/>
+    <col min="19" max="22" width="9.1640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1096,51 +1096,51 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -1149,34 +1149,34 @@
       <c r="K2" s="31"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1191,32 +1191,32 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1227,28 +1227,28 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1261,28 +1261,28 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1295,28 +1295,28 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1329,28 +1329,28 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1363,27 +1363,27 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1396,34 +1396,34 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1433,7 +1433,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,10 +1444,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1460,19 +1460,19 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1485,33 +1485,33 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -1521,20 +1521,20 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1547,20 +1547,20 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1573,25 +1573,25 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -1601,20 +1601,20 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1627,20 +1627,20 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1653,20 +1653,20 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1679,20 +1679,20 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1705,20 +1705,20 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1731,20 +1731,20 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1757,20 +1757,20 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1783,20 +1783,20 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1809,20 +1809,20 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1835,25 +1835,25 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R25" s="5"/>
     </row>
     <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1863,20 +1863,20 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1889,20 +1889,20 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -1915,20 +1915,20 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1941,44 +1941,44 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -1991,28 +1991,28 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -2025,20 +2025,20 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R32" s="17"/>
     </row>
     <row r="33" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2051,45 +2051,45 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>102</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="4" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2102,20 +2102,20 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2128,20 +2128,20 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R36" s="9"/>
     </row>
     <row r="37" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2154,20 +2154,20 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2180,28 +2180,28 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R38" s="9"/>
     </row>
     <row r="39" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
@@ -2214,20 +2214,20 @@
       <c r="O39" s="19"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R39" s="17"/>
     </row>
     <row r="40" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2240,20 +2240,20 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R40" s="9"/>
     </row>
     <row r="41" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2266,20 +2266,20 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2292,20 +2292,20 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2318,22 +2318,22 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R43" s="9"/>
     </row>
     <row r="44" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -2346,20 +2346,20 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -2372,25 +2372,25 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -2400,20 +2400,20 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -2426,20 +2426,20 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -2452,20 +2452,20 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R48" s="9"/>
     </row>
     <row r="49" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2478,20 +2478,20 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -2504,20 +2504,20 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -2530,20 +2530,20 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
       <c r="Q51" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2556,20 +2556,20 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
       <c r="Q52" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R52" s="9"/>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -2582,20 +2582,20 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R53" s="9"/>
     </row>
     <row r="54" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -2608,20 +2608,20 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -2634,20 +2634,20 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -2660,20 +2660,20 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -2686,25 +2686,25 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -2714,20 +2714,20 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -2740,20 +2740,20 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -2766,20 +2766,20 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R60" s="9"/>
     </row>
     <row r="61" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -2792,25 +2792,25 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
       <c r="Q61" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R61" s="9"/>
     </row>
     <row r="62" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -2820,20 +2820,20 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
       <c r="Q62" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -2846,20 +2846,20 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
       <c r="Q63" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -2872,32 +2872,32 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
       <c r="Q64" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R64" s="9"/>
     </row>
     <row r="65" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -2908,20 +2908,20 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
       <c r="Q65" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R65" s="9"/>
     </row>
     <row r="66" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -2934,27 +2934,27 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R66" s="9"/>
     </row>
     <row r="67" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -2964,20 +2964,20 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -2990,20 +2990,20 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
       <c r="Q68" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -3016,20 +3016,20 @@
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
       <c r="Q69" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -3042,20 +3042,20 @@
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R70" s="9"/>
     </row>
     <row r="71" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -3068,20 +3068,20 @@
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R71" s="9"/>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -3094,20 +3094,20 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -3120,20 +3120,20 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -3146,20 +3146,20 @@
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -3172,25 +3172,25 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R75" s="9"/>
     </row>
     <row r="76" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
@@ -3200,20 +3200,20 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R76" s="9"/>
     </row>
     <row r="77" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -3226,7 +3226,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R77" s="9"/>
     </row>
@@ -23303,7 +23303,7 @@
     <row r="2789" spans="2:17" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2789" s="15"/>
       <c r="Q2789" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2790" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23322,19 +23322,19 @@
     <row r="2791" spans="2:17" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2791" s="15"/>
       <c r="Q2791" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2792" spans="2:17" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2792" s="15"/>
       <c r="Q2792" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2793" spans="2:17" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2793" s="15"/>
       <c r="Q2793" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2794" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -23355,7 +23355,7 @@
     <row r="2795" spans="2:17" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2795" s="15"/>
       <c r="Q2795" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2796" spans="2:17" s="9" customFormat="1" x14ac:dyDescent="0.2">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23FDBE2-C358-0A43-AC58-07BA80106052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597C8FC-2E38-F044-BDC1-0E40EEFEECAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
   <si>
     <t>ID</t>
   </si>
@@ -1039,8 +1039,8 @@
   <dimension ref="A1:R2813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1967,6 +1967,9 @@
       <c r="G30" s="11" t="s">
         <v>88</v>
       </c>
+      <c r="Q30" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2077,6 +2080,9 @@
       <c r="H34" s="15"/>
       <c r="I34" s="4" t="s">
         <v>158</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="R34" s="9"/>
     </row>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597C8FC-2E38-F044-BDC1-0E40EEFEECAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284CB32-E469-5E4D-80BC-3FA8608B80C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>Reviewer query</t>
   </si>
 </sst>
 </file>
@@ -1036,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2813"/>
+  <dimension ref="A1:S2813"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,11 +1066,12 @@
     <col min="16" max="16" width="9.1640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="13.5" style="4" customWidth="1"/>
     <col min="18" max="18" width="24.6640625" style="4" customWidth="1"/>
-    <col min="19" max="22" width="9.1640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" style="4" customWidth="1"/>
+    <col min="20" max="22" width="9.1640625" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1122,8 +1126,11 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1166,7 @@
       </c>
       <c r="R2" s="32"/>
     </row>
-    <row r="3" spans="1:18" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1202,7 @@
       </c>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1238,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1272,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1306,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -1333,7 +1340,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>52</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>61</v>
@@ -1463,7 +1470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
         <v>150</v>
@@ -1489,7 +1496,7 @@
       </c>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
@@ -1525,7 +1532,7 @@
       </c>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>67</v>
@@ -1551,7 +1558,7 @@
       </c>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>68</v>
@@ -1577,7 +1584,7 @@
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>69</v>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -542,11 +542,15 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
@@ -571,11 +575,15 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
@@ -600,11 +608,15 @@
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr"/>
@@ -629,11 +641,15 @@
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
@@ -658,11 +674,15 @@
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr"/>
@@ -695,11 +715,15 @@
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
@@ -732,11 +756,15 @@
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
@@ -769,11 +797,15 @@
       <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
@@ -810,11 +842,15 @@
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
@@ -867,11 +903,15 @@
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr"/>
@@ -920,11 +960,15 @@
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
       <c r="P12" s="2" t="inlineStr"/>
@@ -973,11 +1017,15 @@
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
       <c r="P13" s="2" t="inlineStr"/>
@@ -1026,11 +1074,15 @@
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr"/>
       <c r="P14" s="2" t="inlineStr"/>
@@ -1079,20 +1131,32 @@
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="S15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1132,11 +1196,15 @@
       <c r="J16" s="2" t="inlineStr"/>
       <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
       <c r="P16" s="2" t="inlineStr"/>
@@ -1193,11 +1261,15 @@
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr"/>
@@ -1234,11 +1306,15 @@
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1291,11 +1367,15 @@
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr"/>
@@ -1328,11 +1408,15 @@
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr"/>
@@ -1365,11 +1449,15 @@
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr"/>
@@ -1406,11 +1494,15 @@
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr"/>
@@ -1443,11 +1535,15 @@
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr"/>
@@ -1480,11 +1576,15 @@
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr"/>
@@ -1517,11 +1617,15 @@
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr"/>
@@ -1554,11 +1658,15 @@
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr"/>
@@ -1591,11 +1699,15 @@
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr"/>
@@ -1628,11 +1740,15 @@
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr"/>
@@ -1665,11 +1781,15 @@
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr"/>
@@ -1702,11 +1822,15 @@
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr"/>
@@ -1739,11 +1863,15 @@
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr"/>
@@ -1780,11 +1908,15 @@
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>0</v>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
@@ -1817,11 +1949,15 @@
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0</v>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
@@ -1854,11 +1990,15 @@
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>0</v>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
@@ -1891,11 +2031,15 @@
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>0</v>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
@@ -1948,11 +2092,15 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>0</v>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -1985,11 +2133,15 @@
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>0</v>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
@@ -2038,11 +2190,15 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
@@ -2075,11 +2231,15 @@
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>0</v>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
@@ -2132,11 +2292,15 @@
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>0</v>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr"/>
@@ -2169,11 +2333,15 @@
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>0</v>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
@@ -2206,11 +2374,15 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>0</v>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr"/>
@@ -2243,11 +2415,15 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>0</v>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr"/>
@@ -2280,11 +2456,15 @@
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>0</v>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
@@ -2333,11 +2513,15 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
@@ -2370,11 +2554,15 @@
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr"/>
@@ -2407,11 +2595,15 @@
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>0</v>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr"/>
@@ -2444,11 +2636,15 @@
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>0</v>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr"/>
@@ -2481,11 +2677,15 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0</v>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
@@ -2522,11 +2722,15 @@
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0</v>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr"/>
@@ -2559,11 +2763,15 @@
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0</v>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr"/>
@@ -2600,11 +2808,15 @@
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>0</v>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr"/>
@@ -2637,11 +2849,15 @@
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>0</v>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
@@ -2674,11 +2890,15 @@
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>0</v>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr"/>
@@ -2711,11 +2931,15 @@
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>0</v>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr"/>
@@ -2748,11 +2972,15 @@
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0</v>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr"/>
@@ -2785,11 +3013,15 @@
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>0</v>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr"/>
@@ -2822,11 +3054,15 @@
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0</v>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr"/>
@@ -2859,11 +3095,15 @@
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0</v>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr"/>
@@ -2896,11 +3136,15 @@
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>0</v>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr"/>
@@ -2933,11 +3177,15 @@
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>0</v>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr"/>
@@ -2970,11 +3218,15 @@
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>0</v>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr"/>
@@ -3007,11 +3259,15 @@
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>0</v>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr"/>
@@ -3048,11 +3304,15 @@
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>0</v>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr"/>
@@ -3085,11 +3345,15 @@
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>0</v>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
@@ -3122,11 +3386,15 @@
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="2" t="n">
-        <v>0</v>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr"/>
@@ -3159,11 +3427,15 @@
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>0</v>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr"/>
@@ -3200,11 +3472,15 @@
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>0</v>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr"/>
@@ -3237,11 +3513,15 @@
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>0</v>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr"/>
@@ -3274,11 +3554,15 @@
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>0</v>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr"/>
@@ -3331,11 +3615,15 @@
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>0</v>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O71" s="2" t="inlineStr"/>
       <c r="P71" s="2" t="inlineStr"/>
@@ -3387,8 +3675,10 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
-      <c r="N72" t="n">
-        <v>0</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
@@ -3429,11 +3719,15 @@
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2" t="n">
-        <v>0</v>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr"/>
@@ -3474,11 +3768,15 @@
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>0</v>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr"/>
@@ -3511,11 +3809,15 @@
       <c r="J75" s="2" t="inlineStr"/>
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" s="2" t="n">
-        <v>0</v>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr"/>
@@ -3548,11 +3850,15 @@
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>0</v>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O76" s="2" t="inlineStr"/>
       <c r="P76" s="2" t="inlineStr"/>
@@ -3585,11 +3891,15 @@
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>0</v>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O77" s="2" t="inlineStr"/>
       <c r="P77" s="2" t="inlineStr"/>
@@ -3622,11 +3932,15 @@
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0</v>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr"/>
@@ -3659,11 +3973,15 @@
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr"/>
-      <c r="M79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>0</v>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O79" s="2" t="inlineStr"/>
       <c r="P79" s="2" t="inlineStr"/>
@@ -3696,11 +4014,15 @@
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>0</v>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O80" s="2" t="inlineStr"/>
       <c r="P80" s="2" t="inlineStr"/>
@@ -3752,8 +4074,10 @@
       <c r="M81" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N81" s="2" t="n">
-        <v>0</v>
+      <c r="N81" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr"/>
@@ -3786,11 +4110,15 @@
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="2" t="n">
-        <v>0</v>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1142,21 +1142,13 @@
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3681,21 +3673,13 @@
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,11 +531,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Affordable Care Act Medicaid expansion state</t>
+        </is>
+      </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
@@ -564,11 +572,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>STI outpatient clinic</t>
+        </is>
+      </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr"/>
@@ -597,11 +613,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>TB treatment centre</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr"/>
@@ -630,14 +654,26 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>US State</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
@@ -662,14 +698,42 @@
       <c r="S5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr"/>
-      <c r="C6" s="2" t="inlineStr"/>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000441</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>academic emergency department facility</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>An emergency department facility that is part of a university hospital.</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
@@ -695,15 +759,31 @@
       <c r="S6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000442</t>
+        </is>
+      </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Affordable Care Act Medicaid expansion state</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
+          <t>access to a product</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>A personal role that is the extent to which a person can acquire a product.</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -736,15 +816,31 @@
       <c r="S7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000443</t>
+        </is>
+      </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>STI outpatient clinic</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
+          <t>accessibility of a product</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Disposition</t>
+        </is>
+      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -777,15 +873,31 @@
       <c r="S8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000444</t>
+        </is>
+      </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>TB treatment centre</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
+          <t>accessibility of a service</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Disposition</t>
+        </is>
+      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -818,15 +930,31 @@
       <c r="S9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000445</t>
+        </is>
+      </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>US State</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
+          <t>accessibility of heroin</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire heroin.</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Dependent continuant</t>
+        </is>
+      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -834,11 +962,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
+      <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
@@ -865,27 +989,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000441</t>
+          <t>ADDICTO:0000446</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>academic emergency department facility</t>
+          <t>accessibility of opioid agonist therapy</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An emergency department facility that is part of a university hospital.</t>
+          <t>An environmental disposition that is is the extent to which an environment enables people in that environment to receive opioid agonist therapy</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
+          <t>accessibility of addiction treatment</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Material entity</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -894,11 +1018,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H11" s="2" t="inlineStr"/>
       <c r="I11" s="2" t="inlineStr"/>
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
@@ -926,27 +1046,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000442</t>
+          <t>ADDICTO:0000447</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>access to a product</t>
+          <t>acute medical unit</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is the extent to which a person can acquire a product.</t>
+          <t>A health care facility that a dedicated facility within a hospital that acts as the focus for acute medical care for patients that have presented as medical emergencies to hospitals or who have developed an acute medical illness while in hospital.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>Material entity</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -954,9 +1074,17 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr"/>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
+        </is>
+      </c>
       <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>acute medical ward</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="inlineStr"/>
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
@@ -981,29 +1109,17 @@
       <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000443</t>
-        </is>
-      </c>
+      <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a product</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
+          <t>addiction clinic</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Material entity</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1040,27 +1156,27 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000444</t>
+          <t>ADDICTO:0000448</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a service</t>
+          <t>alcohol availability for purchase in a geographical area</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
+          <t>A quality of a geographical area relating to the ease with which alcohol can be purchased in that area.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>substance availability for purchase in a geographical area.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Specifically dependent continuant</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1070,7 +1186,11 @@
       </c>
       <c r="G14" s="2" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>alcohol availability</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
@@ -1095,31 +1215,15 @@
       <c r="S14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000445</t>
-        </is>
-      </c>
+      <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>accessibility of heroin</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire heroin.</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol outlet density</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1152,31 +1256,15 @@
       <c r="S15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000446</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>accessibility of opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is is the extent to which an environment enables people in that environment to receive opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>accessibility of addiction treatment</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Disposition</t>
-        </is>
-      </c>
+          <t>antenatal clinic</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1209,45 +1297,25 @@
       <c r="S16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000447</t>
-        </is>
-      </c>
+      <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>acute medical unit</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A health care facility that a dedicated facility within a hospital that acts as the focus for acute medical care for patients that have presented as medical emergencies to hospitals or who have developed an acute medical illness while in hospital.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
+          <t>bar serving alcohol</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
       <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
-        </is>
-      </c>
+      <c r="G17" s="2" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr"/>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>acute medical ward</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
@@ -1277,16 +1345,12 @@
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>addiction clinic</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
+      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1319,31 +1383,15 @@
       <c r="S18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000448</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>alcohol availability for purchase in a geographical area</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>A quality of a geographical area relating to the ease with which alcohol can be purchased in that area.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>substance availability for purchase in a geographical area.</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Specifically dependent continuant</t>
-        </is>
-      </c>
+          <t>cigarette cue</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1351,11 +1399,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>alcohol availability</t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
@@ -1383,7 +1427,7 @@
       <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>alcohol outlet density</t>
+          <t>cigarette smoking cue</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -1424,7 +1468,7 @@
       <c r="A21" s="2" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>antenatal clinic</t>
+          <t>clinical setting</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1465,7 +1509,7 @@
       <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>bar serving alcohol</t>
+          <t>community setting</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -1478,11 +1522,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
+      <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
@@ -1510,7 +1550,7 @@
       <c r="A23" s="2" t="inlineStr"/>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>county</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
@@ -1551,7 +1591,7 @@
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>cigarette cue</t>
+          <t>critical care unit</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -1592,7 +1632,7 @@
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>cigarette smoking cue</t>
+          <t>decade</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -1633,7 +1673,7 @@
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>clinical setting</t>
+          <t>developed English-speaking country</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -1674,7 +1714,7 @@
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>community setting</t>
+          <t>dispensary facility</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -1687,7 +1727,11 @@
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>dispensary</t>
+        </is>
+      </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr"/>
@@ -1715,7 +1759,7 @@
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>district general hospital</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -1756,7 +1800,7 @@
       <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>critical care unit</t>
+          <t>drinking context</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -1797,7 +1841,7 @@
       <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>decade</t>
+          <t>drinking occasion</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -1835,21 +1879,41 @@
       <c r="S30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>developed English-speaking country</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
@@ -1879,7 +1943,7 @@
       <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>dispensary facility</t>
+          <t>economic recession</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr"/>
@@ -1892,11 +1956,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>dispensary</t>
-        </is>
-      </c>
+      <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
@@ -1921,51 +1981,67 @@
       <c r="S32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>district general hospital</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>OMRSE_00000114</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>emergency Department facility</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>drinking context</t>
+          <t>english-speaking country</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
@@ -2003,15 +2079,31 @@
       <c r="S34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000450</t>
+        </is>
+      </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>drinking occasion</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to environ one or more material entities.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -2019,7 +2111,11 @@
       </c>
       <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr"/>
@@ -2044,41 +2140,21 @@
       <c r="S35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>geographical census region</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
@@ -2108,7 +2184,7 @@
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>economic recession</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -2146,67 +2222,51 @@
       <c r="S37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>OMRSE_00000114</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>emergency Department facility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="A38" s="2" t="inlineStr"/>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>english-speaking country</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -2244,71 +2304,67 @@
       <c r="S39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000450</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>geographical census region</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
@@ -2349,7 +2405,7 @@
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>hospital inpatient facility</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -2390,7 +2446,7 @@
       <c r="A43" s="2" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>harm reduction facility</t>
+          <t>hospital-based outpatient clinic</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -2431,7 +2487,7 @@
       <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -2469,67 +2525,55 @@
       <c r="S44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000524</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>law</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>local neighbourhood</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -2570,7 +2614,7 @@
       <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>hospital inpatient facility</t>
+          <t>low- and middle-income country</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -2583,7 +2627,11 @@
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>LMIC</t>
+        </is>
+      </c>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
@@ -2611,7 +2659,7 @@
       <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>hospital-based outpatient clinic</t>
+          <t>low-regulation environment</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -2652,7 +2700,7 @@
       <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>masculine space</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -2690,14 +2738,10 @@
       <c r="S49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000524</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>national level</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -2738,7 +2782,7 @@
       <c r="A51" s="2" t="inlineStr"/>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>local neighbourhood</t>
+          <t>natural living conditions</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -2779,7 +2823,7 @@
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>low- and middle-income country</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -2792,11 +2836,7 @@
       </c>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>LMIC</t>
-        </is>
-      </c>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
@@ -2824,7 +2864,7 @@
       <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>low-regulation environment</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
@@ -2865,7 +2905,7 @@
       <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>masculine space</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -2906,7 +2946,7 @@
       <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>national level</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -2947,7 +2987,7 @@
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>natural living conditions</t>
+          <t>opportunity for substance use</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -2988,7 +3028,7 @@
       <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>out-patient clinic</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -3029,7 +3069,7 @@
       <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
@@ -3070,7 +3110,7 @@
       <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
@@ -3083,7 +3123,11 @@
       </c>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
@@ -3111,7 +3155,7 @@
       <c r="A60" s="2" t="inlineStr"/>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -3152,7 +3196,7 @@
       <c r="A61" s="2" t="inlineStr"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>opportunity for substance use</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
@@ -3193,7 +3237,7 @@
       <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>out-patient clinic</t>
+          <t>private premises</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -3234,7 +3278,7 @@
       <c r="A63" s="2" t="inlineStr"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -3247,7 +3291,11 @@
       </c>
       <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
@@ -3275,7 +3323,7 @@
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -3288,11 +3336,7 @@
       </c>
       <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
@@ -3320,7 +3364,7 @@
       <c r="A65" s="2" t="inlineStr"/>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>overdose prevention site</t>
+          <t>semi-naturalistic laboratory</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
@@ -3358,22 +3402,42 @@
       <c r="S65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000451</t>
+        </is>
+      </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr"/>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>This should align with setting in BCIO</t>
+        </is>
+      </c>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
@@ -3399,51 +3463,65 @@
       <c r="S66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>private premises</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr"/>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N67" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr"/>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Material entity</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr"/>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>public house</t>
+          <t>smoke-free legislation</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
@@ -3456,11 +3534,7 @@
       </c>
       <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
+      <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
@@ -3488,7 +3562,7 @@
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>real-world drinking enviornment</t>
+          <t>social environment</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -3500,8 +3574,16 @@
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Is this part of the setting that explicitly relates to people?</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>social setting</t>
+        </is>
+      </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr"/>
@@ -3529,7 +3611,7 @@
       <c r="A70" s="2" t="inlineStr"/>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>semi-naturalistic laboratory</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr"/>
@@ -3567,42 +3649,22 @@
       <c r="S70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000451</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="inlineStr"/>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t>socially disadvantaged area</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>This should align with setting in BCIO</t>
-        </is>
-      </c>
+      <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
@@ -3628,65 +3690,51 @@
       <c r="S71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="A72" s="2" t="inlineStr"/>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>specialized addiction care facility</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr"/>
+      <c r="D72" s="2" t="inlineStr"/>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr"/>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>smoke-free legislation</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -3727,7 +3775,7 @@
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>social environment</t>
+          <t>urban setting</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
@@ -3739,16 +3787,8 @@
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>Is this part of the setting that explicitly relates to people?</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>social setting</t>
-        </is>
-      </c>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr"/>
@@ -3776,7 +3816,7 @@
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>social housing</t>
+          <t>urbanicity</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
@@ -3814,15 +3854,31 @@
       <c r="S75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>socially disadvantaged area</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="inlineStr"/>
-      <c r="E76" s="2" t="inlineStr"/>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3834,10 +3890,8 @@
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M76" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
@@ -3858,7 +3912,7 @@
       <c r="A77" s="2" t="inlineStr"/>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>specialized addiction care facility</t>
+          <t>western European country</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
@@ -3895,225 +3949,6 @@
       <c r="R77" s="2" t="inlineStr"/>
       <c r="S77" s="2" t="inlineStr"/>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>supermarket</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-      <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
-      <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O78" s="2" t="inlineStr"/>
-      <c r="P78" s="2" t="inlineStr"/>
-      <c r="Q78" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R78" s="2" t="inlineStr"/>
-      <c r="S78" s="2" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>urban setting</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr"/>
-      <c r="D79" s="2" t="inlineStr"/>
-      <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="inlineStr"/>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
-      <c r="J79" s="2" t="inlineStr"/>
-      <c r="K79" s="2" t="inlineStr"/>
-      <c r="L79" s="2" t="inlineStr"/>
-      <c r="M79" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N79" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O79" s="2" t="inlineStr"/>
-      <c r="P79" s="2" t="inlineStr"/>
-      <c r="Q79" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R79" s="2" t="inlineStr"/>
-      <c r="S79" s="2" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>urbanicity</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr"/>
-      <c r="D80" s="2" t="inlineStr"/>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N80" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr"/>
-      <c r="Q80" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr"/>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr"/>
-      <c r="Q81" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>western European country</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr"/>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N82" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr"/>
-      <c r="Q82" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>emergency Department facility</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2028,13 +2028,21 @@
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2038,11 +2038,7 @@
           <t>External</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1983,7 +1983,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMRSE_00000114</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2083,65 +2083,67 @@
       <c r="S34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000450</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>System</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,51 +2146,65 @@
       <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr"/>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>geographical census region</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>geographical census region</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -2231,7 +2245,7 @@
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>harm reduction facility</t>
+          <t>habitat</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -2272,7 +2286,7 @@
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>harm reduction facility</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -2310,108 +2324,108 @@
       <c r="S39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr"/>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>health and social care facility</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>OMRSE:00000102</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Material entity</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr"/>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>hospital inpatient facility</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -2452,7 +2466,7 @@
       <c r="A43" s="2" t="inlineStr"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>hospital-based outpatient clinic</t>
+          <t>hospital inpatient facility</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
@@ -2493,7 +2507,7 @@
       <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>hospital-based outpatient clinic</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -2531,14 +2545,10 @@
       <c r="S44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000524</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="inlineStr"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -2576,10 +2586,14 @@
       <c r="S45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000524</t>
+        </is>
+      </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>local neighbourhood</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -2620,7 +2634,7 @@
       <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>low- and middle-income country</t>
+          <t>local neighbourhood</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr"/>
@@ -2633,11 +2647,7 @@
       </c>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>LMIC</t>
-        </is>
-      </c>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr"/>
@@ -2665,7 +2675,7 @@
       <c r="A48" s="2" t="inlineStr"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>low-regulation environment</t>
+          <t>low- and middle-income country</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -2678,7 +2688,11 @@
       </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>LMIC</t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
@@ -2706,7 +2720,7 @@
       <c r="A49" s="2" t="inlineStr"/>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>masculine space</t>
+          <t>low-regulation environment</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
@@ -2747,7 +2761,7 @@
       <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>national level</t>
+          <t>masculine space</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -2788,7 +2802,7 @@
       <c r="A51" s="2" t="inlineStr"/>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>natural living conditions</t>
+          <t>national level</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -2829,7 +2843,7 @@
       <c r="A52" s="2" t="inlineStr"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>natural living conditions</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
@@ -2870,7 +2884,7 @@
       <c r="A53" s="2" t="inlineStr"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
@@ -2911,7 +2925,7 @@
       <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr"/>
@@ -2952,7 +2966,7 @@
       <c r="A55" s="2" t="inlineStr"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
@@ -2993,7 +3007,7 @@
       <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>opportunity for substance use</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
@@ -3034,7 +3048,7 @@
       <c r="A57" s="2" t="inlineStr"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>out-patient clinic</t>
+          <t>opportunity for substance use</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
@@ -3075,7 +3089,7 @@
       <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>out-patient clinic</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
@@ -3116,7 +3130,7 @@
       <c r="A59" s="2" t="inlineStr"/>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
@@ -3129,11 +3143,7 @@
       </c>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
@@ -3161,7 +3171,7 @@
       <c r="A60" s="2" t="inlineStr"/>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>overdose prevention site</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -3174,7 +3184,11 @@
       </c>
       <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
@@ -3202,7 +3216,7 @@
       <c r="A61" s="2" t="inlineStr"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
@@ -3243,7 +3257,7 @@
       <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>private premises</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -3284,7 +3298,7 @@
       <c r="A63" s="2" t="inlineStr"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>public house</t>
+          <t>private premises</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
@@ -3297,11 +3311,7 @@
       </c>
       <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
+      <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
@@ -3329,7 +3339,7 @@
       <c r="A64" s="2" t="inlineStr"/>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>real-world drinking enviornment</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -3342,7 +3352,11 @@
       </c>
       <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
@@ -3370,7 +3384,7 @@
       <c r="A65" s="2" t="inlineStr"/>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>semi-naturalistic laboratory</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
@@ -3408,42 +3422,22 @@
       <c r="S65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000451</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t>semi-naturalistic laboratory</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>This should align with setting in BCIO</t>
-        </is>
-      </c>
+      <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
@@ -3459,11 +3453,7 @@
         </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P66" s="2" t="inlineStr"/>
       <c r="Q66" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3473,106 +3463,130 @@
       <c r="S66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000451</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>This should align with setting in BCIO</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
+      <c r="S67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>ENVO:00002221</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>commercial building</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Material entity</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>smoke-free legislation</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr"/>
-      <c r="D68" s="2" t="inlineStr"/>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-      <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr"/>
-      <c r="Q68" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>social environment</t>
+          <t>smoke-free legislation</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -3584,16 +3598,8 @@
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Is this part of the setting that explicitly relates to people?</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>social setting</t>
-        </is>
-      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr"/>
@@ -3621,7 +3627,7 @@
       <c r="A70" s="2" t="inlineStr"/>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>social housing</t>
+          <t>social environment</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr"/>
@@ -3633,8 +3639,16 @@
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Is this part of the setting that explicitly relates to people?</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>social setting</t>
+        </is>
+      </c>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
@@ -3662,7 +3676,7 @@
       <c r="A71" s="2" t="inlineStr"/>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>socially disadvantaged area</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr"/>
@@ -3703,7 +3717,7 @@
       <c r="A72" s="2" t="inlineStr"/>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>specialized addiction care facility</t>
+          <t>socially disadvantaged area</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
@@ -3744,7 +3758,7 @@
       <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>supermarket</t>
+          <t>specialized addiction care facility</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -3785,7 +3799,7 @@
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>urban setting</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
@@ -3826,7 +3840,7 @@
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>urbanicity</t>
+          <t>urban setting</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
@@ -3864,31 +3878,15 @@
       <c r="S75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
+      <c r="A76" s="2" t="inlineStr"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+          <t>urbanicity</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr"/>
+      <c r="D76" s="2" t="inlineStr"/>
+      <c r="E76" s="2" t="inlineStr"/>
       <c r="F76" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3900,8 +3898,10 @@
       <c r="J76" s="2" t="inlineStr"/>
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="n">
-        <v>1</v>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
@@ -3919,15 +3919,31 @@
       <c r="S76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>western European country</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr"/>
-      <c r="D77" s="2" t="inlineStr"/>
-      <c r="E77" s="2" t="inlineStr"/>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3939,10 +3955,8 @@
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
@@ -3958,6 +3972,47 @@
       </c>
       <c r="R77" s="2" t="inlineStr"/>
       <c r="S77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>western European country</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr"/>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
+      <c r="S78" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3583,51 +3583,65 @@
       <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>smoke-free legislation</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr"/>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr"/>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>social environment</t>
+          <t>smoke-free legislation</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr"/>
@@ -3639,16 +3653,8 @@
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Is this part of the setting that explicitly relates to people?</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>social setting</t>
-        </is>
-      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr"/>
@@ -3676,7 +3682,7 @@
       <c r="A71" s="2" t="inlineStr"/>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>social housing</t>
+          <t>social environment</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr"/>
@@ -3688,8 +3694,16 @@
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Is this part of the setting that explicitly relates to people?</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>social setting</t>
+        </is>
+      </c>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr"/>
@@ -3717,7 +3731,7 @@
       <c r="A72" s="2" t="inlineStr"/>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>socially disadvantaged area</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
@@ -3758,7 +3772,7 @@
       <c r="A73" s="2" t="inlineStr"/>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>specialized addiction care facility</t>
+          <t>socially disadvantaged area</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
@@ -3799,7 +3813,7 @@
       <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>supermarket</t>
+          <t>specialized addiction care facility</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
@@ -3840,7 +3854,7 @@
       <c r="A75" s="2" t="inlineStr"/>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>urban setting</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
@@ -3881,7 +3895,7 @@
       <c r="A76" s="2" t="inlineStr"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>urbanicity</t>
+          <t>urban setting</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr"/>
@@ -3919,31 +3933,15 @@
       <c r="S76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="inlineStr"/>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+          <t>urbanicity</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
+      <c r="E77" s="2" t="inlineStr"/>
       <c r="F77" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3955,8 +3953,10 @@
       <c r="J77" s="2" t="inlineStr"/>
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="n">
-        <v>1</v>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
@@ -3974,15 +3974,31 @@
       <c r="S77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>western European country</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr"/>
-      <c r="D78" s="2" t="inlineStr"/>
-      <c r="E78" s="2" t="inlineStr"/>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3994,10 +4010,8 @@
       <c r="J78" s="2" t="inlineStr"/>
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M78" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
@@ -4013,6 +4027,47 @@
       </c>
       <c r="R78" s="2" t="inlineStr"/>
       <c r="S78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>western European country</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr"/>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr"/>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr"/>
+      <c r="K79" s="2" t="inlineStr"/>
+      <c r="L79" s="2" t="inlineStr"/>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" s="2" t="inlineStr"/>
+      <c r="P79" s="2" t="inlineStr"/>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="inlineStr"/>
+      <c r="S79" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,51 +1180,65 @@
       <c r="S13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>canada</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr"/>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr"/>
-      <c r="S14" s="3" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ENVO:00000073</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A permanent walled and roofed construction.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>cigarette cue</t>
+          <t>canada</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -1265,7 +1279,7 @@
       <c r="A16" s="3" t="inlineStr"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking cue</t>
+          <t>cigarette cue</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
@@ -1306,7 +1320,7 @@
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>clinical setting</t>
+          <t>cigarette smoking cue</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -1347,7 +1361,7 @@
       <c r="A18" s="3" t="inlineStr"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>community setting</t>
+          <t>clinical setting</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -1385,51 +1399,65 @@
       <c r="S18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>county</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr"/>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr"/>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ENVO:01001222</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>critical care unit</t>
+          <t>community setting</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1467,51 +1495,65 @@
       <c r="S20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>decade</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr"/>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N21" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" s="3" t="inlineStr"/>
-      <c r="P21" s="3" t="inlineStr"/>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr"/>
-      <c r="S21" s="3" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ENVO:01001813</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>developed English-speaking country</t>
+          <t>county</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -1552,7 +1594,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>dispensary facility</t>
+          <t>critical care unit</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -1565,11 +1607,7 @@
       </c>
       <c r="G23" s="3" t="inlineStr"/>
       <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>dispensary</t>
-        </is>
-      </c>
+      <c r="I23" s="3" t="inlineStr"/>
       <c r="J23" s="3" t="inlineStr"/>
       <c r="K23" s="3" t="inlineStr"/>
       <c r="L23" s="3" t="inlineStr"/>
@@ -1597,7 +1635,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>district general hospital</t>
+          <t>decade</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -1638,7 +1676,7 @@
       <c r="A25" s="3" t="inlineStr"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>drinking context</t>
+          <t>developed English-speaking country</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
@@ -1679,7 +1717,7 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>drinking occasion</t>
+          <t>dispensary facility</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -1692,7 +1730,11 @@
       </c>
       <c r="G26" s="3" t="inlineStr"/>
       <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>dispensary</t>
+        </is>
+      </c>
       <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="inlineStr"/>
@@ -1717,41 +1759,21 @@
       <c r="S26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
+      <c r="A27" s="3" t="inlineStr"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>district general hospital</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="G27" s="3" t="inlineStr"/>
       <c r="H27" s="3" t="inlineStr"/>
       <c r="I27" s="3" t="inlineStr"/>
       <c r="J27" s="3" t="inlineStr"/>
@@ -1781,7 +1803,7 @@
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>economic recession</t>
+          <t>drinking context</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -1819,82 +1841,82 @@
       <c r="S28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="A29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>drinking occasion</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr"/>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>english-speaking country</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="H30" s="3" t="inlineStr"/>
       <c r="I30" s="3" t="inlineStr"/>
       <c r="J30" s="3" t="inlineStr"/>
@@ -1921,92 +1943,70 @@
       <c r="S30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>economic recession</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2020,14 +2020,20 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2042,7 +2048,7 @@
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>geographical census region</t>
+          <t>english-speaking country</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -2080,110 +2086,134 @@
       <c r="S33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>habitat</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to environ one or more material entities.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>geographical census region</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -2221,112 +2251,112 @@
       <c r="S36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>habitat</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr"/>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr"/>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>hospital inpatient facility</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2364,51 +2394,71 @@
       <c r="S39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>hospital-based outpatient clinic</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr"/>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -2446,14 +2496,10 @@
       <c r="S41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000524</t>
-        </is>
-      </c>
+      <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>hospital inpatient facility</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -2494,7 +2540,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>local neighbourhood</t>
+          <t>hospital-based outpatient clinic</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -2532,55 +2578,65 @@
       <c r="S43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr"/>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>low- and middle-income country</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>LMIC</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>low-regulation environment</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -2618,10 +2674,14 @@
       <c r="S45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr"/>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000524</t>
+        </is>
+      </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>masculine space</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -2662,7 +2722,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>national level</t>
+          <t>local neighbourhood</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -2703,7 +2763,7 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>natural living conditions</t>
+          <t>low- and middle-income country</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -2716,7 +2776,11 @@
       </c>
       <c r="G48" s="3" t="inlineStr"/>
       <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>LMIC</t>
+        </is>
+      </c>
       <c r="J48" s="3" t="inlineStr"/>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="inlineStr"/>
@@ -2744,7 +2808,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>low-regulation environment</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -2785,7 +2849,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>masculine space</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -2826,7 +2890,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>national level</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -2867,7 +2931,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>natural living conditions</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -2908,7 +2972,7 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>opportunity for substance use</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -2949,7 +3013,7 @@
       <c r="A54" s="3" t="inlineStr"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>out-patient clinic</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
@@ -2990,7 +3054,7 @@
       <c r="A55" s="3" t="inlineStr"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -3031,7 +3095,7 @@
       <c r="A56" s="3" t="inlineStr"/>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -3044,11 +3108,7 @@
       </c>
       <c r="G56" s="3" t="inlineStr"/>
       <c r="H56" s="3" t="inlineStr"/>
-      <c r="I56" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="I56" s="3" t="inlineStr"/>
       <c r="J56" s="3" t="inlineStr"/>
       <c r="K56" s="3" t="inlineStr"/>
       <c r="L56" s="3" t="inlineStr"/>
@@ -3076,7 +3136,7 @@
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>overdose prevention site</t>
+          <t>opportunity for substance use</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -3117,7 +3177,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
+          <t>out-patient clinic</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
@@ -3158,7 +3218,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>private premises</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -3199,7 +3259,7 @@
       <c r="A60" s="3" t="inlineStr"/>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>public house</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -3214,7 +3274,7 @@
       <c r="H60" s="3" t="inlineStr"/>
       <c r="I60" s="3" t="inlineStr">
         <is>
-          <t>pub</t>
+          <t>outpatient clinic</t>
         </is>
       </c>
       <c r="J60" s="3" t="inlineStr"/>
@@ -3244,7 +3304,7 @@
       <c r="A61" s="3" t="inlineStr"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>real-world drinking enviornment</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -3285,7 +3345,7 @@
       <c r="A62" s="3" t="inlineStr"/>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>semi-naturalistic laboratory</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -3323,42 +3383,22 @@
       <c r="S62" s="3" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000451</t>
-        </is>
-      </c>
+      <c r="A63" s="3" t="inlineStr"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
+          <t>private premises</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
+      <c r="E63" s="3" t="inlineStr"/>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr"/>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>This should align with setting in BCIO</t>
-        </is>
-      </c>
+      <c r="H63" s="3" t="inlineStr"/>
       <c r="I63" s="3" t="inlineStr"/>
       <c r="J63" s="3" t="inlineStr"/>
       <c r="K63" s="3" t="inlineStr"/>
@@ -3374,11 +3414,7 @@
         </is>
       </c>
       <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P63" s="3" t="inlineStr"/>
       <c r="Q63" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3388,120 +3424,96 @@
       <c r="S63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Material entity</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="A64" s="3" t="inlineStr"/>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>public house</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
+      <c r="E64" s="3" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr"/>
+      <c r="H64" s="3" t="inlineStr"/>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+      <c r="L64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr"/>
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="b">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="A65" s="3" t="inlineStr"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>real-world drinking enviornment</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
+      <c r="E65" s="3" t="inlineStr"/>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr"/>
+      <c r="H65" s="3" t="inlineStr"/>
+      <c r="I65" s="3" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr"/>
+      <c r="K65" s="3" t="inlineStr"/>
+      <c r="L65" s="3" t="inlineStr"/>
+      <c r="M65" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr"/>
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr"/>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>smoke-free legislation</t>
+          <t>semi-naturalistic laboratory</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -3539,15 +3551,31 @@
       <c r="S66" s="3" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr"/>
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000451</t>
+        </is>
+      </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>social environment</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr"/>
-      <c r="D67" s="3" t="inlineStr"/>
-      <c r="E67" s="3" t="inlineStr"/>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3556,14 +3584,10 @@
       <c r="G67" s="3" t="inlineStr"/>
       <c r="H67" s="3" t="inlineStr">
         <is>
-          <t>Is this part of the setting that explicitly relates to people?</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="inlineStr">
-        <is>
-          <t>social setting</t>
-        </is>
-      </c>
+          <t>This should align with setting in BCIO</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr"/>
       <c r="J67" s="3" t="inlineStr"/>
       <c r="K67" s="3" t="inlineStr"/>
       <c r="L67" s="3" t="inlineStr"/>
@@ -3578,7 +3602,11 @@
         </is>
       </c>
       <c r="O67" s="3" t="inlineStr"/>
-      <c r="P67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q67" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3588,92 +3616,128 @@
       <c r="S67" s="3" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr"/>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr"/>
-      <c r="D68" s="3" t="inlineStr"/>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G68" s="3" t="inlineStr"/>
-      <c r="H68" s="3" t="inlineStr"/>
-      <c r="I68" s="3" t="inlineStr"/>
-      <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
-      <c r="L68" s="3" t="inlineStr"/>
-      <c r="M68" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N68" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" s="3" t="inlineStr"/>
-      <c r="P68" s="3" t="inlineStr"/>
-      <c r="Q68" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R68" s="3" t="inlineStr"/>
-      <c r="S68" s="3" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr"/>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>socially disadvantaged area</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr"/>
-      <c r="D69" s="3" t="inlineStr"/>
-      <c r="E69" s="3" t="inlineStr"/>
-      <c r="F69" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G69" s="3" t="inlineStr"/>
-      <c r="H69" s="3" t="inlineStr"/>
-      <c r="I69" s="3" t="inlineStr"/>
-      <c r="J69" s="3" t="inlineStr"/>
-      <c r="K69" s="3" t="inlineStr"/>
-      <c r="L69" s="3" t="inlineStr"/>
-      <c r="M69" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N69" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O69" s="3" t="inlineStr"/>
-      <c r="P69" s="3" t="inlineStr"/>
-      <c r="Q69" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R69" s="3" t="inlineStr"/>
-      <c r="S69" s="3" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr"/>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>specialized addiction care facility</t>
+          <t>smoke-free legislation</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -3714,7 +3778,7 @@
       <c r="A71" s="3" t="inlineStr"/>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>supermarket</t>
+          <t>social environment</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -3726,8 +3790,16 @@
         </is>
       </c>
       <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="3" t="inlineStr"/>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>Is this part of the setting that explicitly relates to people?</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>social setting</t>
+        </is>
+      </c>
       <c r="J71" s="3" t="inlineStr"/>
       <c r="K71" s="3" t="inlineStr"/>
       <c r="L71" s="3" t="inlineStr"/>
@@ -3755,7 +3827,7 @@
       <c r="A72" s="3" t="inlineStr"/>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>urban setting</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
@@ -3796,7 +3868,7 @@
       <c r="A73" s="3" t="inlineStr"/>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>urbanicity</t>
+          <t>socially disadvantaged area</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
@@ -3834,31 +3906,15 @@
       <c r="S73" s="3" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
+      <c r="A74" s="3" t="inlineStr"/>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+          <t>specialized addiction care facility</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr"/>
+      <c r="D74" s="3" t="inlineStr"/>
+      <c r="E74" s="3" t="inlineStr"/>
       <c r="F74" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3870,8 +3926,10 @@
       <c r="J74" s="3" t="inlineStr"/>
       <c r="K74" s="3" t="inlineStr"/>
       <c r="L74" s="3" t="inlineStr"/>
-      <c r="M74" s="3" t="n">
-        <v>1</v>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="N74" s="3" t="inlineStr">
         <is>
@@ -3892,7 +3950,7 @@
       <c r="A75" s="3" t="inlineStr"/>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>western European country</t>
+          <t>supermarket</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
@@ -3929,6 +3987,184 @@
       <c r="R75" s="3" t="inlineStr"/>
       <c r="S75" s="3" t="inlineStr"/>
     </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr"/>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>urban setting</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr"/>
+      <c r="D76" s="3" t="inlineStr"/>
+      <c r="E76" s="3" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr"/>
+      <c r="H76" s="3" t="inlineStr"/>
+      <c r="I76" s="3" t="inlineStr"/>
+      <c r="J76" s="3" t="inlineStr"/>
+      <c r="K76" s="3" t="inlineStr"/>
+      <c r="L76" s="3" t="inlineStr"/>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr"/>
+      <c r="Q76" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr"/>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>urbanicity</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr"/>
+      <c r="D77" s="3" t="inlineStr"/>
+      <c r="E77" s="3" t="inlineStr"/>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr"/>
+      <c r="H77" s="3" t="inlineStr"/>
+      <c r="I77" s="3" t="inlineStr"/>
+      <c r="J77" s="3" t="inlineStr"/>
+      <c r="K77" s="3" t="inlineStr"/>
+      <c r="L77" s="3" t="inlineStr"/>
+      <c r="M77" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" s="3" t="inlineStr"/>
+      <c r="P77" s="3" t="inlineStr"/>
+      <c r="Q77" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr"/>
+      <c r="H78" s="3" t="inlineStr"/>
+      <c r="I78" s="3" t="inlineStr"/>
+      <c r="J78" s="3" t="inlineStr"/>
+      <c r="K78" s="3" t="inlineStr"/>
+      <c r="L78" s="3" t="inlineStr"/>
+      <c r="M78" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr"/>
+      <c r="Q78" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R78" s="3" t="inlineStr"/>
+      <c r="S78" s="3" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr"/>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>western European country</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr"/>
+      <c r="D79" s="3" t="inlineStr"/>
+      <c r="E79" s="3" t="inlineStr"/>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr"/>
+      <c r="H79" s="3" t="inlineStr"/>
+      <c r="I79" s="3" t="inlineStr"/>
+      <c r="J79" s="3" t="inlineStr"/>
+      <c r="K79" s="3" t="inlineStr"/>
+      <c r="L79" s="3" t="inlineStr"/>
+      <c r="M79" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr"/>
+      <c r="Q79" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,110 +1135,106 @@
       <c r="S12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>bar serving alcohol</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr"/>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr"/>
-      <c r="S13" s="3" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ENVO:00000073</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A permanent walled and roofed construction.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ENVO:00000073</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A permanent walled and roofed construction.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="A14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>cigarette smoking cue</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr"/>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr"/>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>canada</t>
+          <t>clinical setting</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -1276,51 +1272,65 @@
       <c r="S15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>cigarette cue</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr"/>
-      <c r="S16" s="3" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENVO:01001222</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>cigarette smoking cue</t>
+          <t>community setting</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -1358,106 +1368,106 @@
       <c r="S17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>clinical setting</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr"/>
-      <c r="S18" s="3" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENVO:01001813</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ENVO:01001222</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="A19" s="3" t="inlineStr"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr"/>
+      <c r="H19" s="3" t="inlineStr"/>
+      <c r="I19" s="3" t="inlineStr"/>
+      <c r="J19" s="3" t="inlineStr"/>
+      <c r="K19" s="3" t="inlineStr"/>
+      <c r="L19" s="3" t="inlineStr"/>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr"/>
+      <c r="P19" s="3" t="inlineStr"/>
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr"/>
+      <c r="S19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>community setting</t>
+          <t>critical care unit</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1495,65 +1505,55 @@
       <c r="S20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ENVO:01001813</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="A21" s="3" t="inlineStr"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>dispensary facility</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="inlineStr"/>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>dispensary</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr"/>
+      <c r="K21" s="3" t="inlineStr"/>
+      <c r="L21" s="3" t="inlineStr"/>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="inlineStr"/>
+      <c r="P21" s="3" t="inlineStr"/>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr"/>
+      <c r="S21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>district general hospital</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -1594,7 +1594,7 @@
       <c r="A23" s="3" t="inlineStr"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>critical care unit</t>
+          <t>drinking context</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
       <c r="A24" s="3" t="inlineStr"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>decade</t>
+          <t>drinking occasion</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -1673,21 +1673,41 @@
       <c r="S24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr"/>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>developed English-speaking country</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr"/>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="inlineStr"/>
       <c r="I25" s="3" t="inlineStr"/>
       <c r="J25" s="3" t="inlineStr"/>
@@ -1717,7 +1737,7 @@
       <c r="A26" s="3" t="inlineStr"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>dispensary facility</t>
+          <t>economic recession</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -1730,11 +1750,7 @@
       </c>
       <c r="G26" s="3" t="inlineStr"/>
       <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>dispensary</t>
-        </is>
-      </c>
+      <c r="I26" s="3" t="inlineStr"/>
       <c r="J26" s="3" t="inlineStr"/>
       <c r="K26" s="3" t="inlineStr"/>
       <c r="L26" s="3" t="inlineStr"/>
@@ -1759,51 +1775,71 @@
       <c r="S26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>district general hospital</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="inlineStr"/>
-      <c r="I27" s="3" t="inlineStr"/>
-      <c r="J27" s="3" t="inlineStr"/>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" s="3" t="inlineStr"/>
-      <c r="P27" s="3" t="inlineStr"/>
-      <c r="Q27" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R27" s="3" t="inlineStr"/>
-      <c r="S27" s="3" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OMRSE:00000114</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>drinking context</t>
+          <t>english-speaking country</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -1841,112 +1877,134 @@
       <c r="S28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr"/>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>drinking occasion</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr"/>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="inlineStr"/>
-      <c r="S29" s="3" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to environ one or more material entities.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>economic recession</t>
+          <t>geographical census region</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -1984,71 +2042,71 @@
       <c r="S31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>english-speaking country</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -2088,27 +2146,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>object</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2118,17 +2176,13 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2151,69 +2205,51 @@
       <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="A35" s="3" t="inlineStr"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>hospital inpatient facility</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R35" s="3" t="inlineStr"/>
+      <c r="S35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>geographical census region</t>
+          <t>hospital-based outpatient clinic</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -2251,112 +2287,110 @@
       <c r="S36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr"/>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>habitat</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr"/>
-      <c r="J37" s="3" t="inlineStr"/>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="inlineStr"/>
-      <c r="M37" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" s="3" t="inlineStr"/>
-      <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R37" s="3" t="inlineStr"/>
-      <c r="S37" s="3" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>laboratory</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000524</t>
+        </is>
+      </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>law</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2394,71 +2428,51 @@
       <c r="S39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="A40" s="3" t="inlineStr"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>local neighbourhood</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -2499,7 +2513,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>hospital inpatient facility</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -2540,7 +2554,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>hospital-based outpatient clinic</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -2578,65 +2592,51 @@
       <c r="S43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>opportunity for substance use</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>laboratory</t>
+          <t>out-patient clinic</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -2674,14 +2674,10 @@
       <c r="S45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000524</t>
-        </is>
-      </c>
+      <c r="A46" s="3" t="inlineStr"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>law</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -2722,7 +2718,7 @@
       <c r="A47" s="3" t="inlineStr"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>local neighbourhood</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -2735,7 +2731,11 @@
       </c>
       <c r="G47" s="3" t="inlineStr"/>
       <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="J47" s="3" t="inlineStr"/>
       <c r="K47" s="3" t="inlineStr"/>
       <c r="L47" s="3" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       <c r="A48" s="3" t="inlineStr"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>low- and middle-income country</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -2776,11 +2776,7 @@
       </c>
       <c r="G48" s="3" t="inlineStr"/>
       <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr">
-        <is>
-          <t>LMIC</t>
-        </is>
-      </c>
+      <c r="I48" s="3" t="inlineStr"/>
       <c r="J48" s="3" t="inlineStr"/>
       <c r="K48" s="3" t="inlineStr"/>
       <c r="L48" s="3" t="inlineStr"/>
@@ -2808,7 +2804,7 @@
       <c r="A49" s="3" t="inlineStr"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>low-regulation environment</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -2849,7 +2845,7 @@
       <c r="A50" s="3" t="inlineStr"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>masculine space</t>
+          <t>private premises</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
@@ -2890,7 +2886,7 @@
       <c r="A51" s="3" t="inlineStr"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>national level</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -2903,7 +2899,11 @@
       </c>
       <c r="G51" s="3" t="inlineStr"/>
       <c r="H51" s="3" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr"/>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="J51" s="3" t="inlineStr"/>
       <c r="K51" s="3" t="inlineStr"/>
       <c r="L51" s="3" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
       <c r="A52" s="3" t="inlineStr"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>natural living conditions</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -2972,7 +2972,7 @@
       <c r="A53" s="3" t="inlineStr"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>semi-naturalistic laboratory</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -3010,22 +3010,42 @@
       <c r="S53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr"/>
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000451</t>
+        </is>
+      </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>nightclub</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr"/>
-      <c r="D54" s="3" t="inlineStr"/>
-      <c r="E54" s="3" t="inlineStr"/>
+          <t>setting</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>This should align with setting in BCIO</t>
+        </is>
+      </c>
       <c r="I54" s="3" t="inlineStr"/>
       <c r="J54" s="3" t="inlineStr"/>
       <c r="K54" s="3" t="inlineStr"/>
@@ -3041,7 +3061,11 @@
         </is>
       </c>
       <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q54" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3051,92 +3075,128 @@
       <c r="S54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr"/>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>non-critical care unit</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr"/>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr"/>
-      <c r="Q55" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr"/>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr"/>
-      <c r="D56" s="3" t="inlineStr"/>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G56" s="3" t="inlineStr"/>
-      <c r="H56" s="3" t="inlineStr"/>
-      <c r="I56" s="3" t="inlineStr"/>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="3" t="inlineStr"/>
-      <c r="L56" s="3" t="inlineStr"/>
-      <c r="M56" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" s="3" t="inlineStr"/>
-      <c r="P56" s="3" t="inlineStr"/>
-      <c r="Q56" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R56" s="3" t="inlineStr"/>
-      <c r="S56" s="3" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>opportunity for substance use</t>
+          <t>smoke-free legislation</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
@@ -3177,7 +3237,7 @@
       <c r="A58" s="3" t="inlineStr"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>out-patient clinic</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
@@ -3218,7 +3278,7 @@
       <c r="A59" s="3" t="inlineStr"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>specialized addiction care facility</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -3256,15 +3316,31 @@
       <c r="S59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr"/>
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
-      <c r="E60" s="3" t="inlineStr"/>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -3272,18 +3348,12 @@
       </c>
       <c r="G60" s="3" t="inlineStr"/>
       <c r="H60" s="3" t="inlineStr"/>
-      <c r="I60" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="I60" s="3" t="inlineStr"/>
       <c r="J60" s="3" t="inlineStr"/>
       <c r="K60" s="3" t="inlineStr"/>
       <c r="L60" s="3" t="inlineStr"/>
-      <c r="M60" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="M60" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="N60" s="3" t="inlineStr">
         <is>
@@ -3299,871 +3369,6 @@
       </c>
       <c r="R60" s="3" t="inlineStr"/>
       <c r="S60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="inlineStr"/>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>overdose prevention site</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr"/>
-      <c r="D61" s="3" t="inlineStr"/>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr"/>
-      <c r="H61" s="3" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr"/>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-      <c r="L61" s="3" t="inlineStr"/>
-      <c r="M61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N61" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" s="3" t="inlineStr"/>
-      <c r="P61" s="3" t="inlineStr"/>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="inlineStr"/>
-      <c r="S61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr"/>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>presence of other smokers</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr"/>
-      <c r="D62" s="3" t="inlineStr"/>
-      <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G62" s="3" t="inlineStr"/>
-      <c r="H62" s="3" t="inlineStr"/>
-      <c r="I62" s="3" t="inlineStr"/>
-      <c r="J62" s="3" t="inlineStr"/>
-      <c r="K62" s="3" t="inlineStr"/>
-      <c r="L62" s="3" t="inlineStr"/>
-      <c r="M62" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N62" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" s="3" t="inlineStr"/>
-      <c r="P62" s="3" t="inlineStr"/>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R62" s="3" t="inlineStr"/>
-      <c r="S62" s="3" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr"/>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>private premises</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr"/>
-      <c r="H63" s="3" t="inlineStr"/>
-      <c r="I63" s="3" t="inlineStr"/>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr"/>
-      <c r="L63" s="3" t="inlineStr"/>
-      <c r="M63" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" s="3" t="inlineStr"/>
-      <c r="P63" s="3" t="inlineStr"/>
-      <c r="Q63" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R63" s="3" t="inlineStr"/>
-      <c r="S63" s="3" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr"/>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>public house</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
-      <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G64" s="3" t="inlineStr"/>
-      <c r="H64" s="3" t="inlineStr"/>
-      <c r="I64" s="3" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
-      <c r="L64" s="3" t="inlineStr"/>
-      <c r="M64" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N64" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O64" s="3" t="inlineStr"/>
-      <c r="P64" s="3" t="inlineStr"/>
-      <c r="Q64" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr"/>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>real-world drinking enviornment</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
-      <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G65" s="3" t="inlineStr"/>
-      <c r="H65" s="3" t="inlineStr"/>
-      <c r="I65" s="3" t="inlineStr"/>
-      <c r="J65" s="3" t="inlineStr"/>
-      <c r="K65" s="3" t="inlineStr"/>
-      <c r="L65" s="3" t="inlineStr"/>
-      <c r="M65" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N65" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O65" s="3" t="inlineStr"/>
-      <c r="P65" s="3" t="inlineStr"/>
-      <c r="Q65" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R65" s="3" t="inlineStr"/>
-      <c r="S65" s="3" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr"/>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>semi-naturalistic laboratory</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr"/>
-      <c r="D66" s="3" t="inlineStr"/>
-      <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G66" s="3" t="inlineStr"/>
-      <c r="H66" s="3" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr"/>
-      <c r="J66" s="3" t="inlineStr"/>
-      <c r="K66" s="3" t="inlineStr"/>
-      <c r="L66" s="3" t="inlineStr"/>
-      <c r="M66" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N66" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O66" s="3" t="inlineStr"/>
-      <c r="P66" s="3" t="inlineStr"/>
-      <c r="Q66" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R66" s="3" t="inlineStr"/>
-      <c r="S66" s="3" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000451</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>setting</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>A role that an environment has by virtue of environing a material entity or a process.</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>Role</t>
-        </is>
-      </c>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G67" s="3" t="inlineStr"/>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>This should align with setting in BCIO</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="inlineStr"/>
-      <c r="J67" s="3" t="inlineStr"/>
-      <c r="K67" s="3" t="inlineStr"/>
-      <c r="L67" s="3" t="inlineStr"/>
-      <c r="M67" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N67" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O67" s="3" t="inlineStr"/>
-      <c r="P67" s="3" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q67" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R67" s="3" t="inlineStr"/>
-      <c r="S67" s="3" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr"/>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>smoke-free legislation</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr"/>
-      <c r="D70" s="3" t="inlineStr"/>
-      <c r="E70" s="3" t="inlineStr"/>
-      <c r="F70" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G70" s="3" t="inlineStr"/>
-      <c r="H70" s="3" t="inlineStr"/>
-      <c r="I70" s="3" t="inlineStr"/>
-      <c r="J70" s="3" t="inlineStr"/>
-      <c r="K70" s="3" t="inlineStr"/>
-      <c r="L70" s="3" t="inlineStr"/>
-      <c r="M70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N70" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O70" s="3" t="inlineStr"/>
-      <c r="P70" s="3" t="inlineStr"/>
-      <c r="Q70" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R70" s="3" t="inlineStr"/>
-      <c r="S70" s="3" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr"/>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>social environment</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr"/>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr">
-        <is>
-          <t>Is this part of the setting that explicitly relates to people?</t>
-        </is>
-      </c>
-      <c r="I71" s="3" t="inlineStr">
-        <is>
-          <t>social setting</t>
-        </is>
-      </c>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-      <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N71" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O71" s="3" t="inlineStr"/>
-      <c r="P71" s="3" t="inlineStr"/>
-      <c r="Q71" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R71" s="3" t="inlineStr"/>
-      <c r="S71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr"/>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr"/>
-      <c r="D72" s="3" t="inlineStr"/>
-      <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G72" s="3" t="inlineStr"/>
-      <c r="H72" s="3" t="inlineStr"/>
-      <c r="I72" s="3" t="inlineStr"/>
-      <c r="J72" s="3" t="inlineStr"/>
-      <c r="K72" s="3" t="inlineStr"/>
-      <c r="L72" s="3" t="inlineStr"/>
-      <c r="M72" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N72" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O72" s="3" t="inlineStr"/>
-      <c r="P72" s="3" t="inlineStr"/>
-      <c r="Q72" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R72" s="3" t="inlineStr"/>
-      <c r="S72" s="3" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr"/>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>socially disadvantaged area</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
-      <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G73" s="3" t="inlineStr"/>
-      <c r="H73" s="3" t="inlineStr"/>
-      <c r="I73" s="3" t="inlineStr"/>
-      <c r="J73" s="3" t="inlineStr"/>
-      <c r="K73" s="3" t="inlineStr"/>
-      <c r="L73" s="3" t="inlineStr"/>
-      <c r="M73" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N73" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O73" s="3" t="inlineStr"/>
-      <c r="P73" s="3" t="inlineStr"/>
-      <c r="Q73" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R73" s="3" t="inlineStr"/>
-      <c r="S73" s="3" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr"/>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>specialized addiction care facility</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr"/>
-      <c r="D74" s="3" t="inlineStr"/>
-      <c r="E74" s="3" t="inlineStr"/>
-      <c r="F74" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="inlineStr"/>
-      <c r="H74" s="3" t="inlineStr"/>
-      <c r="I74" s="3" t="inlineStr"/>
-      <c r="J74" s="3" t="inlineStr"/>
-      <c r="K74" s="3" t="inlineStr"/>
-      <c r="L74" s="3" t="inlineStr"/>
-      <c r="M74" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N74" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O74" s="3" t="inlineStr"/>
-      <c r="P74" s="3" t="inlineStr"/>
-      <c r="Q74" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R74" s="3" t="inlineStr"/>
-      <c r="S74" s="3" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr"/>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>supermarket</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr"/>
-      <c r="D75" s="3" t="inlineStr"/>
-      <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G75" s="3" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
-      <c r="I75" s="3" t="inlineStr"/>
-      <c r="J75" s="3" t="inlineStr"/>
-      <c r="K75" s="3" t="inlineStr"/>
-      <c r="L75" s="3" t="inlineStr"/>
-      <c r="M75" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N75" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O75" s="3" t="inlineStr"/>
-      <c r="P75" s="3" t="inlineStr"/>
-      <c r="Q75" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R75" s="3" t="inlineStr"/>
-      <c r="S75" s="3" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr"/>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>urban setting</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr"/>
-      <c r="D76" s="3" t="inlineStr"/>
-      <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G76" s="3" t="inlineStr"/>
-      <c r="H76" s="3" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr"/>
-      <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr"/>
-      <c r="L76" s="3" t="inlineStr"/>
-      <c r="M76" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N76" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O76" s="3" t="inlineStr"/>
-      <c r="P76" s="3" t="inlineStr"/>
-      <c r="Q76" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R76" s="3" t="inlineStr"/>
-      <c r="S76" s="3" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr"/>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>urbanicity</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr"/>
-      <c r="D77" s="3" t="inlineStr"/>
-      <c r="E77" s="3" t="inlineStr"/>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="inlineStr"/>
-      <c r="H77" s="3" t="inlineStr"/>
-      <c r="I77" s="3" t="inlineStr"/>
-      <c r="J77" s="3" t="inlineStr"/>
-      <c r="K77" s="3" t="inlineStr"/>
-      <c r="L77" s="3" t="inlineStr"/>
-      <c r="M77" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N77" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O77" s="3" t="inlineStr"/>
-      <c r="P77" s="3" t="inlineStr"/>
-      <c r="Q77" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R77" s="3" t="inlineStr"/>
-      <c r="S77" s="3" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>A shop that sells vaping devices or vaping device components or material to be vaped.</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
-      <c r="F78" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G78" s="3" t="inlineStr"/>
-      <c r="H78" s="3" t="inlineStr"/>
-      <c r="I78" s="3" t="inlineStr"/>
-      <c r="J78" s="3" t="inlineStr"/>
-      <c r="K78" s="3" t="inlineStr"/>
-      <c r="L78" s="3" t="inlineStr"/>
-      <c r="M78" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O78" s="3" t="inlineStr"/>
-      <c r="P78" s="3" t="inlineStr"/>
-      <c r="Q78" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R78" s="3" t="inlineStr"/>
-      <c r="S78" s="3" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr"/>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>western European country</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr"/>
-      <c r="D79" s="3" t="inlineStr"/>
-      <c r="E79" s="3" t="inlineStr"/>
-      <c r="F79" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="G79" s="3" t="inlineStr"/>
-      <c r="H79" s="3" t="inlineStr"/>
-      <c r="I79" s="3" t="inlineStr"/>
-      <c r="J79" s="3" t="inlineStr"/>
-      <c r="K79" s="3" t="inlineStr"/>
-      <c r="L79" s="3" t="inlineStr"/>
-      <c r="M79" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N79" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O79" s="3" t="inlineStr"/>
-      <c r="P79" s="3" t="inlineStr"/>
-      <c r="Q79" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R79" s="3" t="inlineStr"/>
-      <c r="S79" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,8 +1050,10 @@
       <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="b">
-        <v>1</v>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
@@ -1112,11 +1114,15 @@
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R10" s="2" t="inlineStr"/>
       <c r="S10" s="2" t="inlineStr">
@@ -1349,8 +1355,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
@@ -1455,8 +1463,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
@@ -1565,8 +1575,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
@@ -1845,28 +1857,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1878,24 +1890,14 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
@@ -1913,36 +1915,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1950,7 +1948,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1981,32 +1983,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GEO:000000372</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>geographical region</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>geographical entity</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>immaterial object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -2020,7 +2026,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2029,7 +2035,11 @@
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr">
         <is>
           <t>External</t>
@@ -2039,352 +2049,370 @@
       <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GEO:000000372</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>geographical region</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>geographical entity</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>immaterial object</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001147</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>harm reduction facility</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T27" s="2" t="inlineStr">
+      <c r="T28" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001152</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>health and social care facility</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="inlineStr"/>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr"/>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
-      <c r="O28" s="3" t="inlineStr"/>
-      <c r="P28" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="3" t="inlineStr"/>
-      <c r="S28" s="3" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T28" s="3" t="inlineStr">
+      <c r="T29" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U28" s="3" t="inlineStr"/>
-      <c r="V28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>OMRSE:00000102</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr"/>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr"/>
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>hospital inpatient facility</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr"/>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U30" s="3" t="inlineStr"/>
-      <c r="V30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="U31" s="3" t="inlineStr"/>
+      <c r="V31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>ENVO:00000070</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>human construction</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="inlineStr"/>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U32" s="3" t="inlineStr"/>
-      <c r="V32" s="3" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -2428,7 +2456,7 @@
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -2472,7 +2500,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -2516,7 +2544,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -2560,7 +2588,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>outpatient clinic</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -2604,7 +2632,7 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>outpatient clinic</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -2620,11 +2648,7 @@
       </c>
       <c r="J38" s="3" t="inlineStr"/>
       <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="L38" s="3" t="inlineStr"/>
       <c r="M38" s="3" t="inlineStr"/>
       <c r="N38" s="3" t="inlineStr"/>
       <c r="O38" s="3" t="inlineStr"/>
@@ -2652,7 +2676,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>overdose prevention site</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2668,7 +2692,11 @@
       </c>
       <c r="J39" s="3" t="inlineStr"/>
       <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="M39" s="3" t="inlineStr"/>
       <c r="N39" s="3" t="inlineStr"/>
       <c r="O39" s="3" t="inlineStr"/>
@@ -2696,7 +2724,7 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -2740,7 +2768,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>public house</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -2756,11 +2784,7 @@
       </c>
       <c r="J41" s="3" t="inlineStr"/>
       <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
+      <c r="L41" s="3" t="inlineStr"/>
       <c r="M41" s="3" t="inlineStr"/>
       <c r="N41" s="3" t="inlineStr"/>
       <c r="O41" s="3" t="inlineStr"/>
@@ -2788,7 +2812,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>real-world drinking enviornment</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -2804,7 +2828,11 @@
       </c>
       <c r="J42" s="3" t="inlineStr"/>
       <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="M42" s="3" t="inlineStr"/>
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr"/>
@@ -2832,7 +2860,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>semi-naturalistic laboratory</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -2873,92 +2901,74 @@
       <c r="V43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="A44" s="3" t="inlineStr"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>semi-naturalistic laboratory</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2974,10 +2984,8 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="P45" t="n">
+        <v>1</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -2999,76 +3007,80 @@
       <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr"/>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr"/>
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr"/>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr"/>
-      <c r="T46" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U46" s="3" t="inlineStr"/>
-      <c r="V46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
+      <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
       <c r="G47" s="3" t="inlineStr"/>
       <c r="H47" s="3" t="inlineStr"/>
       <c r="I47" s="3" t="inlineStr">
@@ -3082,8 +3094,10 @@
       <c r="M47" s="3" t="inlineStr"/>
       <c r="N47" s="3" t="inlineStr"/>
       <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="n">
-        <v>1</v>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q47" s="3" t="inlineStr">
         <is>
@@ -3099,6 +3113,64 @@
       </c>
       <c r="U47" s="3" t="inlineStr"/>
       <c r="V47" s="3" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr"/>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr"/>
+      <c r="T48" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,23 +745,23 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000448</t>
+          <t>ADDICTO:0001153</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>accessibility of alcohol</t>
+          <t>accessibility of addiction treatment</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a product where the product is an alcoholic beverage</t>
+          <t>Accessibility of a service in which the service is addiction treatment.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a product</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -778,24 +778,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>alcohol availability</t>
-        </is>
-      </c>
+      <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr"/>
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
@@ -813,17 +803,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000445</t>
+          <t>ADDICTO:0000448</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>accessibility of heroin</t>
+          <t>accessibility of alcohol</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a product where the product is heroin.</t>
+          <t>Accessibility of a product where the product is an alcoholic beverage</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
@@ -846,7 +836,11 @@
       </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>alcohol availability</t>
+        </is>
+      </c>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
       <c r="O6" s="2" t="inlineStr"/>
@@ -877,23 +871,23 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000446</t>
+          <t>ADDICTO:0000445</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>accessibility of opioid agonist therapy</t>
+          <t>accessibility of heroin</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a service where the service is opioid agonist therapy</t>
+          <t>Accessibility of a product where the product is heroin.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>accessibility of addiction treatment</t>
+          <t>accessibility of a product</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -941,28 +935,28 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000447</t>
+          <t>ADDICTO:0000446</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>acute medical unit</t>
+          <t>accessibility of opioid agonist therapy</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
+          <t>Accessibility of a service where the service is opioid agonist therapy</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>accessibility of addiction treatment</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
@@ -972,17 +966,9 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
-        </is>
-      </c>
+      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>acute medical ward</t>
-        </is>
-      </c>
+      <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr"/>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
@@ -1013,17 +999,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001148</t>
+          <t>ADDICTO:0000447</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>addiction clinic</t>
+          <t>acute medical unit</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that treats and manages addictive disorders.</t>
+          <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
@@ -1044,15 +1030,23 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>acute medical ward</t>
+        </is>
+      </c>
       <c r="M9" s="2" t="inlineStr"/>
       <c r="N9" s="2" t="inlineStr"/>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1077,23 +1071,23 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001149</t>
+          <t>ADDICTO:0001148</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>alcohol outlet</t>
+          <t>addiction clinic</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A facility where some alcoholic beverage can be purchased.</t>
+          <t>A healthcare facility that treats and manages addictive disorders.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1116,7 +1110,7 @@
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1141,28 +1135,28 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001150</t>
+          <t>ADDICTO:0001149</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>alcohol outlet density</t>
+          <t>alcohol outlet</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about the number of alcohol outlets per unit area within a geographical location.</t>
+          <t>A facility where some alcoholic beverage can be purchased.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
@@ -1205,28 +1199,28 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001151</t>
+          <t>ADDICTO:0001150</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>antenatal clinic</t>
+          <t>alcohol outlet density</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that provides services to people who are pregnant and their partners.</t>
+          <t>An information content entity that is about the number of alcohol outlets per unit area within a geographical location.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
@@ -1267,382 +1261,402 @@
       <c r="V12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr"/>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001151</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>antenatal clinic</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides services to people who are pregnant and their partners.</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr"/>
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>behavioural cue</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr"/>
-      <c r="S13" s="3" t="inlineStr"/>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr"/>
+      <c r="F14" s="3" t="inlineStr"/>
+      <c r="G14" s="3" t="inlineStr"/>
+      <c r="H14" s="3" t="inlineStr"/>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr"/>
+      <c r="K14" s="3" t="inlineStr"/>
+      <c r="L14" s="3" t="inlineStr"/>
+      <c r="M14" s="3" t="inlineStr"/>
+      <c r="N14" s="3" t="inlineStr"/>
+      <c r="O14" s="3" t="inlineStr"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr"/>
+      <c r="S14" s="3" t="inlineStr"/>
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr"/>
-      <c r="V13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>ENVO:00000073</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>A permanent walled and roofed construction.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>human construction</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr"/>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr"/>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>clinical setting</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
-      <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr"/>
-      <c r="H15" s="3" t="inlineStr"/>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr"/>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="inlineStr"/>
-      <c r="O15" s="3" t="inlineStr"/>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R15" s="3" t="inlineStr"/>
-      <c r="S15" s="3" t="inlineStr"/>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr"/>
+      <c r="F16" s="3" t="inlineStr"/>
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr"/>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr"/>
-      <c r="V15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr"/>
+      <c r="V16" s="3" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>ENVO:01001222</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>commercial building</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr"/>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr"/>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>community setting</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr"/>
-      <c r="H17" s="3" t="inlineStr"/>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr"/>
-      <c r="K17" s="3" t="inlineStr"/>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr"/>
-      <c r="N17" s="3" t="inlineStr"/>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr"/>
-      <c r="S17" s="3" t="inlineStr"/>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr"/>
+      <c r="S18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr"/>
-      <c r="V17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr"/>
+      <c r="V18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>ENVO:01001813</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>critical care unit</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="inlineStr"/>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr"/>
-      <c r="K19" s="3" t="inlineStr"/>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="inlineStr"/>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr"/>
-      <c r="S19" s="3" t="inlineStr"/>
-      <c r="T19" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U19" s="3" t="inlineStr"/>
-      <c r="V19" s="3" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>drinking context</t>
+          <t>critical care unit</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -1683,32 +1697,16 @@
       <c r="V20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
+      <c r="A21" s="3" t="inlineStr"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
+          <t>drinking context</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr"/>
       <c r="H21" s="3" t="inlineStr"/>
       <c r="I21" s="3" t="inlineStr">
@@ -1716,11 +1714,7 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="J21" s="3" t="inlineStr"/>
       <c r="K21" s="3" t="inlineStr"/>
       <c r="L21" s="3" t="inlineStr"/>
       <c r="M21" s="3" t="inlineStr"/>
@@ -1747,196 +1741,202 @@
       <c r="V21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr"/>
+      <c r="H22" s="3" t="inlineStr"/>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+      <c r="L22" s="3" t="inlineStr"/>
+      <c r="M22" s="3" t="inlineStr"/>
+      <c r="N22" s="3" t="inlineStr"/>
+      <c r="O22" s="3" t="inlineStr"/>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="3" t="inlineStr"/>
+      <c r="S22" s="3" t="inlineStr"/>
+      <c r="T22" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U22" s="3" t="inlineStr"/>
+      <c r="V22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>OMRSE:00000114</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>emergency department facility</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>health care facility</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr"/>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr"/>
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>english-speaking country</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="inlineStr"/>
-      <c r="F23" s="3" t="inlineStr"/>
-      <c r="G23" s="3" t="inlineStr"/>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J23" s="3" t="inlineStr"/>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="inlineStr"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="inlineStr"/>
-      <c r="S23" s="3" t="inlineStr"/>
-      <c r="T23" s="3" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr"/>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U23" s="3" t="inlineStr"/>
-      <c r="V23" s="3" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ENVO:01000452</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1948,24 +1948,14 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
@@ -1983,36 +1973,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -2020,7 +2006,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2051,32 +2041,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GEO:000000372</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>geographical region</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>geographical entity</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>immaterial object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -2090,7 +2084,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2099,7 +2093,11 @@
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr">
         <is>
           <t>External</t>
@@ -2109,354 +2107,370 @@
       <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GEO:000000372</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>geographical region</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>geographical entity</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>immaterial object</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001147</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>harm reduction facility</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="inlineStr"/>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T28" s="2" t="inlineStr">
+      <c r="T29" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001152</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>health and social care facility</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="inlineStr"/>
-      <c r="S29" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr"/>
+      <c r="S30" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T29" s="3" t="inlineStr">
+      <c r="T30" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U29" s="3" t="inlineStr"/>
-      <c r="V29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>OMRSE:00000102</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr"/>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>hospital inpatient facility</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
-      <c r="P31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" s="3" t="inlineStr"/>
-      <c r="S31" s="3" t="inlineStr"/>
-      <c r="T31" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr"/>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr"/>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
+      <c r="M32" s="3" t="inlineStr"/>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="inlineStr"/>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U31" s="3" t="inlineStr"/>
-      <c r="V31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="U32" s="3" t="inlineStr"/>
+      <c r="V32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>ENVO:00000070</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>human construction</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U33" s="3" t="inlineStr"/>
-      <c r="V33" s="3" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>laboratory</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -2500,7 +2514,7 @@
       <c r="A35" s="3" t="inlineStr"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>neighbourhood</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
@@ -2544,7 +2558,7 @@
       <c r="A36" s="3" t="inlineStr"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>nightclub</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -2588,7 +2602,7 @@
       <c r="A37" s="3" t="inlineStr"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>non-critical care unit</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -2632,7 +2646,7 @@
       <c r="A38" s="3" t="inlineStr"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>outpatient clinic</t>
+          <t>outpatient addiction clinic</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -2676,7 +2690,7 @@
       <c r="A39" s="3" t="inlineStr"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>outpatient clinic</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2692,11 +2706,7 @@
       </c>
       <c r="J39" s="3" t="inlineStr"/>
       <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="L39" s="3" t="inlineStr"/>
       <c r="M39" s="3" t="inlineStr"/>
       <c r="N39" s="3" t="inlineStr"/>
       <c r="O39" s="3" t="inlineStr"/>
@@ -2724,7 +2734,7 @@
       <c r="A40" s="3" t="inlineStr"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>overdose prevention site</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -2740,7 +2750,11 @@
       </c>
       <c r="J40" s="3" t="inlineStr"/>
       <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="M40" s="3" t="inlineStr"/>
       <c r="N40" s="3" t="inlineStr"/>
       <c r="O40" s="3" t="inlineStr"/>
@@ -2768,7 +2782,7 @@
       <c r="A41" s="3" t="inlineStr"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -2812,7 +2826,7 @@
       <c r="A42" s="3" t="inlineStr"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>public house</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -2828,11 +2842,7 @@
       </c>
       <c r="J42" s="3" t="inlineStr"/>
       <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
+      <c r="L42" s="3" t="inlineStr"/>
       <c r="M42" s="3" t="inlineStr"/>
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr"/>
@@ -2860,7 +2870,7 @@
       <c r="A43" s="3" t="inlineStr"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>real-world drinking enviornment</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -2876,7 +2886,11 @@
       </c>
       <c r="J43" s="3" t="inlineStr"/>
       <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="M43" s="3" t="inlineStr"/>
       <c r="N43" s="3" t="inlineStr"/>
       <c r="O43" s="3" t="inlineStr"/>
@@ -2904,7 +2918,7 @@
       <c r="A44" s="3" t="inlineStr"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>semi-naturalistic laboratory</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -2945,92 +2959,74 @@
       <c r="V44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="A45" s="3" t="inlineStr"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>semi-naturalistic laboratory</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr"/>
+      <c r="T45" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3046,10 +3042,8 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="P46" t="n">
+        <v>1</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3071,76 +3065,80 @@
       <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr"/>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr"/>
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr"/>
-      <c r="D47" s="3" t="inlineStr"/>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr"/>
-      <c r="T47" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
+      <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
       <c r="G48" s="3" t="inlineStr"/>
       <c r="H48" s="3" t="inlineStr"/>
       <c r="I48" s="3" t="inlineStr">
@@ -3154,8 +3152,10 @@
       <c r="M48" s="3" t="inlineStr"/>
       <c r="N48" s="3" t="inlineStr"/>
       <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="n">
-        <v>1</v>
+      <c r="P48" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q48" s="3" t="inlineStr">
         <is>
@@ -3171,6 +3171,64 @@
       </c>
       <c r="U48" s="3" t="inlineStr"/>
       <c r="V48" s="3" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr"/>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr"/>
+      <c r="T49" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00eee8aa"/>
       </patternFill>
     </fill>
   </fills>
@@ -558,30 +558,26 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000441</t>
+          <t>ADDICTO:0001154</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>academic emergency department facility</t>
+          <t>English-speaking country</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>An emergency department facility that is part of a university hospital.</t>
+          <t>A country in which English is an official language.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
@@ -614,748 +610,764 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000441</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>academic emergency department facility</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>An emergency department facility that is part of a university hospital.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000443</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>environmental disposition</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr"/>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr"/>
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr"/>
+      <c r="W4" s="3" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000444</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>accessibility of a service</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>environmental disposition</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr"/>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr"/>
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr"/>
+      <c r="W5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001153</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>accessibility of addiction treatment</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Accessibility of a service in which the service is addiction treatment.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr"/>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>accessibility of a service</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr"/>
+      <c r="H6" s="3" t="inlineStr"/>
+      <c r="I6" s="3" t="inlineStr"/>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr"/>
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr"/>
+      <c r="N6" s="3" t="inlineStr"/>
+      <c r="O6" s="3" t="inlineStr"/>
+      <c r="P6" s="3" t="inlineStr"/>
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr"/>
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr"/>
+      <c r="W6" s="3" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000448</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>accessibility of alcohol</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Accessibility of a product where the product is an alcoholic beverage</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>alcohol availability</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr"/>
+      <c r="P7" s="3" t="inlineStr"/>
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr"/>
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V6" s="2" t="inlineStr"/>
-      <c r="W6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000445</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>accessibility of heroin</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Accessibility of a product where the product is heroin.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr"/>
+      <c r="I8" s="3" t="inlineStr"/>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+      <c r="L8" s="3" t="inlineStr"/>
+      <c r="M8" s="3" t="inlineStr"/>
+      <c r="N8" s="3" t="inlineStr"/>
+      <c r="O8" s="3" t="inlineStr"/>
+      <c r="P8" s="3" t="inlineStr"/>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr"/>
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V7" s="2" t="inlineStr"/>
-      <c r="W7" s="2" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000446</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>accessibility of opioid agonist therapy</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Accessibility of a service where the service is opioid agonist therapy</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>accessibility of addiction treatment</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr"/>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" s="3" t="inlineStr"/>
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V8" s="2" t="inlineStr"/>
-      <c r="W8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0000447</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>acute medical unit</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr"/>
+      <c r="I10" s="3" t="inlineStr"/>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
         </is>
       </c>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>acute medical ward</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr"/>
-      <c r="T9" s="2" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="3" t="inlineStr"/>
+      <c r="P10" s="3" t="inlineStr"/>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr"/>
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V9" s="2" t="inlineStr"/>
-      <c r="W9" s="2" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr"/>
+      <c r="W10" s="3" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001148</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>addiction clinic</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>A healthcare facility that treats and manages addictive disorders.</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr"/>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr"/>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="3" t="inlineStr"/>
+      <c r="P11" s="3" t="inlineStr"/>
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr"/>
-      <c r="T10" s="2" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" s="3" t="inlineStr"/>
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V10" s="2" t="inlineStr"/>
-      <c r="W10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr"/>
+      <c r="W11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001149</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>alcohol outlet</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>A facility where some alcoholic beverage can be purchased.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr"/>
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr"/>
-      <c r="T11" s="2" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr"/>
+      <c r="H12" s="3" t="inlineStr"/>
+      <c r="I12" s="3" t="inlineStr"/>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr"/>
+      <c r="L12" s="3" t="inlineStr"/>
+      <c r="M12" s="3" t="inlineStr"/>
+      <c r="N12" s="3" t="inlineStr"/>
+      <c r="O12" s="3" t="inlineStr"/>
+      <c r="P12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr"/>
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr"/>
+      <c r="W12" s="3" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001150</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>alcohol outlet density</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>An information content entity that is about the number of alcohol outlets per unit area within a geographical location.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr"/>
-      <c r="T12" s="2" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr"/>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="3" t="inlineStr"/>
+      <c r="P13" s="3" t="inlineStr"/>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr"/>
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V12" s="2" t="inlineStr"/>
-      <c r="W12" s="2" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr"/>
+      <c r="W13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001151</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>antenatal clinic</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>A healthcare facility that provides services to people who are pregnant and their partners.</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr"/>
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr"/>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr"/>
-      <c r="W13" s="2" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>behavioural cue</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
       <c r="G14" s="3" t="inlineStr"/>
       <c r="H14" s="3" t="inlineStr"/>
       <c r="I14" s="3" t="inlineStr"/>
@@ -1381,10 +1393,14 @@
         </is>
       </c>
       <c r="S14" s="3" t="inlineStr"/>
-      <c r="T14" s="3" t="inlineStr"/>
+      <c r="T14" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr"/>
@@ -1456,49 +1472,49 @@
       <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr"/>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>clinical setting</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr"/>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr"/>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr"/>
-      <c r="W16" s="3" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
+      <c r="W16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1566,49 +1582,49 @@
       <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr"/>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>community setting</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="3" t="inlineStr"/>
-      <c r="T18" s="3" t="inlineStr"/>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr"/>
-      <c r="W18" s="3" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1680,269 +1696,265 @@
       <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr"/>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>critical care unit</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr"/>
-      <c r="G20" s="3" t="inlineStr"/>
-      <c r="H20" s="3" t="inlineStr"/>
-      <c r="I20" s="3" t="inlineStr"/>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="3" t="inlineStr"/>
-      <c r="O20" s="3" t="inlineStr"/>
-      <c r="P20" s="3" t="inlineStr"/>
-      <c r="Q20" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" s="3" t="inlineStr"/>
-      <c r="T20" s="3" t="inlineStr"/>
-      <c r="U20" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V20" s="3" t="inlineStr"/>
-      <c r="W20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr"/>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>drinking context</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr"/>
-      <c r="H21" s="3" t="inlineStr"/>
-      <c r="I21" s="3" t="inlineStr"/>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-      <c r="L21" s="3" t="inlineStr"/>
-      <c r="M21" s="3" t="inlineStr"/>
-      <c r="N21" s="3" t="inlineStr"/>
-      <c r="O21" s="3" t="inlineStr"/>
-      <c r="P21" s="3" t="inlineStr"/>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S21" s="3" t="inlineStr"/>
-      <c r="T21" s="3" t="inlineStr"/>
-      <c r="U21" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr"/>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V21" s="3" t="inlineStr"/>
-      <c r="W21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="V22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000449</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>economic development</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Economic_development</t>
         </is>
       </c>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr"/>
-      <c r="P22" s="3" t="inlineStr"/>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="3" t="inlineStr"/>
-      <c r="T22" s="3" t="inlineStr"/>
-      <c r="U22" s="3" t="inlineStr">
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr"/>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V22" s="3" t="inlineStr"/>
-      <c r="W22" s="3" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="V23" s="2" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>OMRSE:00000114</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>emergency department facility</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>health care facility</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
         <is>
           <t>JH; RW</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>english-speaking country</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr"/>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr"/>
-      <c r="U24" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V24" s="3" t="inlineStr"/>
-      <c r="W24" s="3" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2211,134 +2223,134 @@
       <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001147</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>harm reduction facility</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>A healthcare facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr"/>
-      <c r="T29" s="2" t="inlineStr">
+      <c r="R29" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr">
+      <c r="U29" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001152</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>health and social care facility</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U30" s="3" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V30" s="3" t="inlineStr"/>
-      <c r="W30" s="3" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2406,49 +2418,69 @@
       <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>hospital inpatient facility</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr"/>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr"/>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr"/>
-      <c r="U32" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr"/>
-      <c r="W32" s="3" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2516,286 +2548,306 @@
       <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>laboratory</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr"/>
-      <c r="U34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr"/>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>neighbourhood</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr"/>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="inlineStr"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="3" t="inlineStr"/>
-      <c r="T35" s="3" t="inlineStr"/>
-      <c r="U35" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V35" s="3" t="inlineStr"/>
-      <c r="W35" s="3" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr"/>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr"/>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>nightclub</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="3" t="inlineStr"/>
-      <c r="T36" s="3" t="inlineStr"/>
-      <c r="U36" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr"/>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr"/>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>non-critical care unit</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr"/>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr"/>
-      <c r="L37" s="3" t="inlineStr"/>
-      <c r="M37" s="3" t="inlineStr"/>
-      <c r="N37" s="3" t="inlineStr"/>
-      <c r="O37" s="3" t="inlineStr"/>
-      <c r="P37" s="3" t="inlineStr"/>
-      <c r="Q37" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R37" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="3" t="inlineStr"/>
-      <c r="T37" s="3" t="inlineStr"/>
-      <c r="U37" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V37" s="3" t="inlineStr"/>
-      <c r="W37" s="3" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr"/>
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>outpatient addiction clinic</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr"/>
-      <c r="U38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr"/>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>outpatient clinic</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr"/>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="3" t="inlineStr"/>
-      <c r="T39" s="3" t="inlineStr"/>
-      <c r="U39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V39" s="3" t="inlineStr"/>
-      <c r="W39" s="3" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr"/>
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001155</t>
+        </is>
+      </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
           <t>outpatient facility</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
+        </is>
+      </c>
       <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="G40" s="3" t="inlineStr"/>
       <c r="H40" s="3" t="inlineStr"/>
       <c r="I40" s="3" t="inlineStr"/>
@@ -2825,243 +2877,247 @@
         </is>
       </c>
       <c r="S40" s="3" t="inlineStr"/>
-      <c r="T40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr"/>
       <c r="W40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr"/>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr"/>
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>overdose prevention site</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr"/>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr"/>
-      <c r="U41" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V41" s="3" t="inlineStr"/>
-      <c r="W41" s="3" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr"/>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr"/>
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>presence of other smokers</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="3" t="inlineStr"/>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V42" s="3" t="inlineStr"/>
-      <c r="W42" s="3" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr"/>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr"/>
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>public house</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr">
         <is>
           <t>pub</t>
         </is>
       </c>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr"/>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr">
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V43" s="3" t="inlineStr"/>
-      <c r="W43" s="3" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
+      <c r="W43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr"/>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr"/>
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>real-world drinking enviornment</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="3" t="inlineStr"/>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V44" s="3" t="inlineStr"/>
-      <c r="W44" s="3" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr"/>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr"/>
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>semi-naturalistic laboratory</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr"/>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" s="3" t="inlineStr"/>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V45" s="3" t="inlineStr"/>
-      <c r="W45" s="3" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3192,108 +3248,108 @@
       <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr"/>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr"/>
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="inlineStr"/>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr"/>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" s="3" t="inlineStr"/>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr"/>
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V48" s="3" t="inlineStr"/>
-      <c r="W48" s="3" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A shop that sells products related to vaping.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="n">
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R49" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" s="3" t="inlineStr"/>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr">
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr"/>
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V49" s="3" t="inlineStr"/>
-      <c r="W49" s="3" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
+      <c r="W49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,8 +857,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="R6" s="3" t="n">
-        <v>0</v>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S6" s="3" t="inlineStr"/>
       <c r="T6" s="3" t="inlineStr">
@@ -1472,70 +1474,90 @@
       <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>clinical setting</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr"/>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V16" s="2" t="inlineStr"/>
-      <c r="W16" s="2" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ENVO:01001222</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENVO:01001222</t>
+          <t>ENVO:01001813</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1544,7 +1566,11 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
@@ -1585,7 +1611,7 @@
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>community setting</t>
+          <t>country</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -1606,18 +1632,18 @@
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1627,85 +1653,77 @@
       <c r="W18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ENVO:01001813</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="A19" s="2" t="inlineStr"/>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>drinking context</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr"/>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
       <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
@@ -1714,20 +1732,28 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="T20" s="2" t="inlineStr"/>
       <c r="U20" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1737,189 +1763,241 @@
       <c r="W20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>critical care unit</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr"/>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OMRSE:00000114</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>drinking context</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr"/>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr"/>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="inlineStr"/>
-      <c r="W23" s="2" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to environ one or more material entities.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
@@ -1934,7 +2012,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -1945,7 +2023,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -1959,28 +2037,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>GEO:000000372</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>geographical region</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>geographical entity</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>immaterial object</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1999,18 +2077,16 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
           <t>External</t>
@@ -2020,172 +2096,160 @@
       <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>System</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr"/>
+      <c r="H26" s="3" t="inlineStr"/>
+      <c r="I26" s="3" t="inlineStr"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr"/>
+      <c r="N26" s="3" t="inlineStr"/>
+      <c r="O26" s="3" t="inlineStr"/>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="U26" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V26" s="3" t="inlineStr"/>
+      <c r="W26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000062</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001152</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>health and social care facility</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides housing, health care and social care.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An architectural structure that bears some function.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GEO:000000372</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>geographical region</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>geographical entity</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>immaterial object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2213,7 +2277,11 @@
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
           <t>External</t>
@@ -2223,384 +2291,364 @@
       <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr"/>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="3" t="inlineStr"/>
-      <c r="T29" s="3" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U29" s="3" t="inlineStr">
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001156</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" s="3" t="inlineStr"/>
+      <c r="T31" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U31" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V29" s="3" t="inlineStr"/>
-      <c r="W29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001152</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>health and social care facility</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides housing, health care and social care.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="V31" s="3" t="inlineStr"/>
+      <c r="W31" s="3" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr"/>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>neighbourhood</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr"/>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>nightclub</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001155</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>outpatient facility</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr"/>
-      <c r="T30" s="2" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>neighbourhood</t>
+          <t>overdose prevention site</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
@@ -2645,7 +2693,7 @@
       <c r="A36" s="2" t="inlineStr"/>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>nightclub</t>
+          <t>presence of other smokers</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -2690,7 +2738,7 @@
       <c r="A37" s="2" t="inlineStr"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>non-critical care unit</t>
+          <t>public house</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
@@ -2707,7 +2755,11 @@
       </c>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>pub</t>
+        </is>
+      </c>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
@@ -2735,7 +2787,7 @@
       <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>outpatient addiction clinic</t>
+          <t>real-world drinking enviornment</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -2780,7 +2832,7 @@
       <c r="A39" s="2" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>outpatient clinic</t>
+          <t>semi-naturalistic laboratory</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -2822,124 +2874,138 @@
       <c r="W39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" s="3" t="inlineStr"/>
-      <c r="T40" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U40" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V40" s="3" t="inlineStr"/>
-      <c r="W40" s="3" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr"/>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>overdose prevention site</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>presence of other smokers</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -2981,16 +3047,32 @@
       <c r="W42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>public house</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr"/>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
       <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
@@ -3001,18 +3083,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
+      <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q43" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
@@ -3028,328 +3104,6 @@
       </c>
       <c r="V43" s="2" t="inlineStr"/>
       <c r="W43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr"/>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>real-world drinking enviornment</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr"/>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr"/>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>semi-naturalistic laboratory</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" s="2" t="inlineStr"/>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr"/>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" s="2" t="inlineStr"/>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R49" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" s="2" t="inlineStr"/>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V49" s="2" t="inlineStr"/>
-      <c r="W49" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,11 +1632,15 @@
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="n">
-        <v>0</v>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
@@ -1653,16 +1657,32 @@
       <c r="W18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>drinking context</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
+          <t>economic development</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
+        </is>
+      </c>
       <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
@@ -1671,7 +1691,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
@@ -1698,95 +1722,95 @@
       <c r="W19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OMRSE:00000114</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1805,7 +1829,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1816,7 +1840,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -1830,33 +1854,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1864,7 +1892,11 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1895,37 +1927,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1933,11 +1965,7 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -1968,36 +1996,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>GEO:000000372</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>geographical region</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>geographical entity</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>immaterial object</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
@@ -2012,7 +2036,7 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2021,11 +2045,7 @@
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
           <t>External</t>
@@ -2035,86 +2055,90 @@
       <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GEO:000000372</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>geographical region</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>geographical entity</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>immaterial object</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr"/>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+      <c r="L25" s="3" t="inlineStr"/>
+      <c r="M25" s="3" t="inlineStr"/>
+      <c r="N25" s="3" t="inlineStr"/>
+      <c r="O25" s="3" t="inlineStr"/>
+      <c r="P25" s="3" t="inlineStr"/>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" s="3" t="inlineStr"/>
+      <c r="T25" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U25" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V25" s="3" t="inlineStr"/>
+      <c r="W25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001147</t>
+          <t>ADDICTO:0001152</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>harm reduction facility</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+          <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -2138,7 +2162,7 @@
       <c r="P26" s="3" t="inlineStr"/>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="3" t="inlineStr">
@@ -2161,90 +2185,90 @@
       <c r="W26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001152</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>health and social care facility</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides housing, health care and social care.</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" s="2" t="inlineStr"/>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V27" s="2" t="inlineStr"/>
-      <c r="W27" s="2" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2293,28 +2317,28 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>ENVO:00000070</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>human construction</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+          <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2333,7 +2357,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2356,90 +2380,90 @@
       <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001156</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr"/>
+      <c r="N30" s="3" t="inlineStr"/>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U30" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V30" s="3" t="inlineStr"/>
+      <c r="W30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001156</t>
+          <t>ADDICTO:0001155</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>laboratory facility</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -2457,7 +2481,11 @@
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="N31" s="3" t="inlineStr"/>
       <c r="O31" s="3" t="inlineStr"/>
       <c r="P31" s="3" t="inlineStr"/>
@@ -2486,624 +2514,240 @@
       <c r="W31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr"/>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>neighbourhood</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>social housing</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>nightclub</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V33" s="2" t="inlineStr"/>
-      <c r="W33" s="2" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U34" s="3" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr"/>
+      <c r="H35" s="3" t="inlineStr"/>
+      <c r="I35" s="3" t="inlineStr"/>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
+      <c r="M35" s="3" t="inlineStr"/>
+      <c r="N35" s="3" t="inlineStr"/>
+      <c r="O35" s="3" t="inlineStr"/>
+      <c r="P35" s="3" t="inlineStr"/>
+      <c r="Q35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" s="3" t="inlineStr"/>
+      <c r="T35" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U35" s="3" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr"/>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>overdose prevention site</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr"/>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr"/>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>presence of other smokers</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr"/>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr"/>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>public house</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr"/>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>pub</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr"/>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr"/>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>real-world drinking enviornment</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr"/>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V38" s="2" t="inlineStr"/>
-      <c r="W38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr"/>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>semi-naturalistic laboratory</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr"/>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr"/>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr"/>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
+      <c r="V35" s="3" t="inlineStr"/>
+      <c r="W35" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,155 +2315,149 @@
       <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001157</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>housing</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>A facility that provides accommodation for people.</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr"/>
+      <c r="N29" s="3" t="inlineStr"/>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3" t="inlineStr"/>
+      <c r="S29" s="3" t="inlineStr"/>
+      <c r="T29" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U29" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>ENVO:00000070</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>human construction</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001156</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="3" t="inlineStr"/>
-      <c r="T30" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V30" s="3" t="inlineStr"/>
-      <c r="W30" s="3" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001155</t>
+          <t>ADDICTO:0001156</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>outpatient facility</t>
+          <t>laboratory facility</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -2481,11 +2475,7 @@
       </c>
       <c r="K31" s="3" t="inlineStr"/>
       <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="M31" s="3" t="inlineStr"/>
       <c r="N31" s="3" t="inlineStr"/>
       <c r="O31" s="3" t="inlineStr"/>
       <c r="P31" s="3" t="inlineStr"/>
@@ -2514,93 +2504,99 @@
       <c r="W31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001155</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>outpatient facility</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr"/>
+      <c r="I32" s="3" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+      <c r="L32" s="3" t="inlineStr"/>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
+      <c r="N32" s="3" t="inlineStr"/>
+      <c r="O32" s="3" t="inlineStr"/>
+      <c r="P32" s="3" t="inlineStr"/>
+      <c r="Q32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" s="3" t="inlineStr"/>
+      <c r="T32" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V32" s="3" t="inlineStr"/>
+      <c r="W32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2617,10 +2613,8 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q33" t="n">
+        <v>1</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2642,75 +2636,95 @@
       <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr"/>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0000440</t>
+          <t>ADDICTO:0001158</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>vape shop</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>A shop that sells products related to vaping.</t>
+          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr"/>
@@ -2721,13 +2735,17 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
       <c r="L35" s="3" t="inlineStr"/>
       <c r="M35" s="3" t="inlineStr"/>
       <c r="N35" s="3" t="inlineStr"/>
       <c r="O35" s="3" t="inlineStr"/>
       <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="n">
+      <c r="Q35" s="3" t="b">
         <v>1</v>
       </c>
       <c r="R35" s="3" t="inlineStr">
@@ -2748,6 +2766,69 @@
       </c>
       <c r="V35" s="3" t="inlineStr"/>
       <c r="W35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr"/>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
+      <c r="L36" s="3" t="inlineStr"/>
+      <c r="M36" s="3" t="inlineStr"/>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="3" t="inlineStr"/>
+      <c r="P36" s="3" t="inlineStr"/>
+      <c r="Q36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" s="3" t="inlineStr"/>
+      <c r="T36" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U36" s="3" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="inlineStr"/>
+      <c r="W36" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,17 +30,12 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -577,7 +571,11 @@
           <t>country</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr"/>
@@ -592,10 +590,8 @@
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -610,803 +606,803 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000441</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>academic emergency department facility</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>An emergency department facility that is part of a university hospital.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>emergency department facility</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="inlineStr"/>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="3" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000443</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>environmental disposition</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr"/>
-      <c r="L4" s="3" t="inlineStr"/>
-      <c r="M4" s="3" t="inlineStr"/>
-      <c r="N4" s="3" t="inlineStr"/>
-      <c r="O4" s="3" t="inlineStr"/>
-      <c r="P4" s="3" t="inlineStr"/>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="inlineStr"/>
-      <c r="T4" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr"/>
-      <c r="W4" s="3" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000444</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>accessibility of a service</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr"/>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>environmental disposition</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr"/>
-      <c r="H5" s="3" t="inlineStr"/>
-      <c r="I5" s="3" t="inlineStr"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr"/>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
-      <c r="N5" s="3" t="inlineStr"/>
-      <c r="O5" s="3" t="inlineStr"/>
-      <c r="P5" s="3" t="inlineStr"/>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr"/>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr"/>
-      <c r="W5" s="3" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001153</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>accessibility of addiction treatment</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Accessibility of a service in which the service is addiction treatment.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr"/>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>accessibility of a service</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr"/>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr"/>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr"/>
-      <c r="N6" s="3" t="inlineStr"/>
-      <c r="O6" s="3" t="inlineStr"/>
-      <c r="P6" s="3" t="inlineStr"/>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr"/>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr"/>
-      <c r="W6" s="3" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000448</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>accessibility of alcohol</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Accessibility of a product where the product is an alcoholic beverage</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr"/>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr"/>
-      <c r="H7" s="3" t="inlineStr"/>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>alcohol availability</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr"/>
-      <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="inlineStr"/>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr"/>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr"/>
-      <c r="W7" s="3" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000445</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>accessibility of heroin</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Accessibility of a product where the product is heroin.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>accessibility of a product</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr"/>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="3" t="inlineStr"/>
-      <c r="P8" s="3" t="inlineStr"/>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" s="3" t="inlineStr"/>
-      <c r="T8" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr"/>
-      <c r="W8" s="3" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
+      <c r="W8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000446</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>accessibility of opioid agonist therapy</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Accessibility of a service where the service is opioid agonist therapy</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr"/>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>accessibility of addiction treatment</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr"/>
-      <c r="H9" s="3" t="inlineStr"/>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr"/>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="3" t="inlineStr"/>
-      <c r="N9" s="3" t="inlineStr"/>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="inlineStr"/>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" s="3" t="inlineStr"/>
-      <c r="T9" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr"/>
-      <c r="W9" s="3" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr"/>
+      <c r="W9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000447</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>acute medical unit</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr"/>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>acute medical ward</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr"/>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="inlineStr"/>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="inlineStr"/>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr"/>
+      <c r="O10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr"/>
-      <c r="W10" s="3" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr"/>
+      <c r="W10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001148</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>addiction clinic</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that treats and manages addictive disorders.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="inlineStr"/>
-      <c r="Q11" s="3" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="inlineStr"/>
-      <c r="T11" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr"/>
-      <c r="W11" s="3" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001149</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>alcohol outlet</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>A facility where some alcoholic beverage can be purchased.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr"/>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr"/>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr"/>
-      <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr"/>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="inlineStr"/>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="3" t="inlineStr"/>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr"/>
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="inlineStr"/>
+      <c r="O12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr"/>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr"/>
-      <c r="W12" s="3" t="inlineStr"/>
+      <c r="V12" s="2" t="inlineStr"/>
+      <c r="W12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001150</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>alcohol outlet density</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>An information content entity that is about the number of alcohol outlets per unit area within a geographical location.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr"/>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr"/>
-      <c r="H13" s="3" t="inlineStr"/>
-      <c r="I13" s="3" t="inlineStr"/>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr"/>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr"/>
-      <c r="N13" s="3" t="inlineStr"/>
-      <c r="O13" s="3" t="inlineStr"/>
-      <c r="P13" s="3" t="inlineStr"/>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" s="3" t="inlineStr"/>
-      <c r="T13" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr"/>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr"/>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr"/>
-      <c r="W13" s="3" t="inlineStr"/>
+      <c r="V13" s="2" t="inlineStr"/>
+      <c r="W13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001151</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>antenatal clinic</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that provides services to people who are pregnant and their partners.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr"/>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="inlineStr"/>
-      <c r="I14" s="3" t="inlineStr"/>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="inlineStr"/>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr"/>
-      <c r="T14" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr"/>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr"/>
-      <c r="W14" s="3" t="inlineStr"/>
+      <c r="V14" s="2" t="inlineStr"/>
+      <c r="W14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1608,16 +1604,32 @@
       <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001159</t>
+        </is>
+      </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A geopolitical region that delimits a government with effective internal and external sovereignty over the region and its population, and which is not dependent on or subject to any other power or Geopolitical Entity.</t>
+        </is>
+      </c>
       <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>geopolitical region</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr"/>
       <c r="I18" s="2" t="inlineStr"/>
@@ -1626,16 +1638,22 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>http://www.ontologyrepository.com/CommonCoreOntologies/Country</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity.</t>
+        </is>
+      </c>
       <c r="M18" s="2" t="inlineStr"/>
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q18" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1650,102 +1668,102 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>To Be Discussed</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr"/>
       <c r="W18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>economic development</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the economic well-being and quality of life of a nation, region or local community are improved.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr"/>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OMRSE:00000114</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>emergency department facility</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>JH; RW</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OMRSE:00000114</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>emergency department facility</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1764,7 +1782,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1775,7 +1793,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>JH; RW</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -1789,33 +1807,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1823,7 +1845,11 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1854,37 +1880,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1892,11 +1918,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1927,36 +1949,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>GEO:000000372</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>geographical region</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>geographical entity</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>immaterial object</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
@@ -1971,7 +1989,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -1980,11 +1998,7 @@
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>External</t>
@@ -1994,216 +2008,220 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GEO:000000372</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>geographical region</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>geographical entity</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>immaterial object</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001152</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>health and social care facility</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides housing, health care and social care.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr"/>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr"/>
-      <c r="H25" s="3" t="inlineStr"/>
-      <c r="I25" s="3" t="inlineStr"/>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr"/>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="3" t="inlineStr"/>
-      <c r="P25" s="3" t="inlineStr"/>
-      <c r="Q25" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R25" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="3" t="inlineStr"/>
-      <c r="T25" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U25" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V25" s="3" t="inlineStr"/>
-      <c r="W25" s="3" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001152</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>health and social care facility</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>A facility that provides housing, health care and social care.</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr"/>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr"/>
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="inlineStr"/>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr"/>
-      <c r="N26" s="3" t="inlineStr"/>
-      <c r="O26" s="3" t="inlineStr"/>
-      <c r="P26" s="3" t="inlineStr"/>
-      <c r="Q26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="3" t="inlineStr"/>
-      <c r="T26" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U26" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V26" s="3" t="inlineStr"/>
-      <c r="W26" s="3" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2250,327 +2268,335 @@
       <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001157</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>housing</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides accommodation for people.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001156</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>level of economic development</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr"/>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr"/>
+      <c r="W31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001155</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>outpatient facility</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001157</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>housing</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>A facility that provides accommodation for people.</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr"/>
-      <c r="Q29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3" t="inlineStr"/>
-      <c r="S29" s="3" t="inlineStr"/>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U29" s="3" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V29" s="3" t="inlineStr"/>
-      <c r="W29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001156</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr"/>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
-      <c r="P31" s="3" t="inlineStr"/>
-      <c r="Q31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S31" s="3" t="inlineStr"/>
-      <c r="T31" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U31" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V31" s="3" t="inlineStr"/>
-      <c r="W31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr"/>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr"/>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr"/>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="inlineStr"/>
-      <c r="Q32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="3" t="inlineStr"/>
-      <c r="T32" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V32" s="3" t="inlineStr"/>
-      <c r="W32" s="3" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2701,134 +2727,136 @@
       <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>housing</t>
         </is>
       </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr"/>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr"/>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L35" s="3" t="inlineStr"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="inlineStr"/>
-      <c r="Q35" s="3" t="b">
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R35" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="3" t="inlineStr"/>
-      <c r="T35" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U35" s="3" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V35" s="3" t="inlineStr"/>
-      <c r="W35" s="3" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="inlineStr"/>
-      <c r="Q36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="3" t="inlineStr"/>
-      <c r="T36" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U36" s="3" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V36" s="3" t="inlineStr"/>
-      <c r="W36" s="3" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,8 +590,10 @@
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="b">
-        <v>1</v>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -1652,8 +1654,10 @@
       <c r="N18" s="2" t="inlineStr"/>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="b">
-        <v>1</v>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1949,28 +1953,28 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GEO:000000372</t>
+          <t>SIO:000414</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>geographical region</t>
+          <t>geographic region</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+          <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>geographical entity</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>immaterial object</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1987,18 +1991,16 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
           <t>External</t>
@@ -2008,160 +2010,150 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GEO:000000372</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>geographical region</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>geographical entity</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>immaterial object</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001152</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>health and social care facility</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides housing, health care and social care.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SIO:000413</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>geolegal region</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A geographic region which has causal powers conferred by a legal entity.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>geographic region</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>SIO:000415</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>geopolitical region</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+          <t>A geolegal region recognized by social or legal convention.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>geolegal region</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -2178,16 +2170,10 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
@@ -2203,84 +2189,84 @@
       <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001147</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>harm reduction facility</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr"/>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001157</t>
+          <t>ADDICTO:0001152</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A facility that provides accommodation for people.</t>
+          <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2310,11 +2296,13 @@
       <c r="P28" s="2" t="inlineStr"/>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S28" s="2" t="inlineStr"/>
       <c r="T28" s="2" t="inlineStr">
@@ -2333,28 +2321,28 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENVO:00000070</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>human construction</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2373,7 +2361,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2396,95 +2384,95 @@
       <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001156</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>OMRSE:00000063</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr"/>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000449</t>
+          <t>ADDICTO:0001157</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>level of economic development</t>
+          <t>housing</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+          <t>A facility that provides accommodation for people.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
@@ -2495,11 +2483,7 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr"/>
       <c r="N31" s="2" t="inlineStr"/>
@@ -2507,7 +2491,7 @@
       <c r="P31" s="2" t="inlineStr"/>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
@@ -2530,222 +2514,224 @@
       <c r="W31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001156</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr"/>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>level of economic development</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr"/>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001158</t>
+          <t>ADDICTO:0001155</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>social housing</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2761,19 +2747,19 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>https://languages.oup.com/google-dictionary-en/</t>
-        </is>
-      </c>
+      <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
@@ -2796,67 +2782,264 @@
       <c r="W35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001158</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>social housing</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>housing</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>A shop that sells products related to vaping.</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="n">
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00eee8aa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1991,10 +1997,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
@@ -2010,65 +2020,69 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>GEO:000000372</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>geographical region</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>geographical entity</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="3" t="inlineStr">
         <is>
           <t>immaterial object</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr"/>
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" s="3" t="inlineStr"/>
+      <c r="T24" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U24" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="V24" s="3" t="inlineStr"/>
+      <c r="W24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2111,10 +2125,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
@@ -2170,10 +2188,14 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="b">
-        <v>1</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity.</t>
+          <t>Definition taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity. But lineage is taken from SIO because it appears to make better discriminations.</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr"/>
@@ -2002,8 +2002,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
@@ -2130,8 +2132,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
@@ -2193,8 +2197,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
@@ -3001,67 +3007,126 @@
       <c r="W38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>A shop that sells products related to vaping.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="n">
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Definition taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity. But lineage is taken from SIO because it appears to make better discriminations.</t>
+          <t>Definition taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity.</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr"/>
@@ -2087,134 +2087,134 @@
       <c r="W24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SIO:000413</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>geolegal region</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A geographic region which has causal powers conferred by a legal entity.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>geographic region</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001160</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>geopolitical region</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>geospatial region</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>SIO:000415</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>geopolitical region</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A geolegal region recognized by social or legal convention.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>geolegal region</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001161</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>geospatial region</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A site at or near the surface of the Earth.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00eee8aa"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,90 +2016,90 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>GEO:000000372</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>geographical region</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>A geographical entity that is demarcated at least in part by one or more closed fiat boundaries all of whose lines are part of the planetary surface.</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>geographical entity</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>immaterial object</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr"/>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="inlineStr"/>
-      <c r="P24" s="3" t="inlineStr"/>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="3" t="inlineStr"/>
-      <c r="T24" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U24" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="V24" s="3" t="inlineStr"/>
-      <c r="W24" s="3" t="inlineStr"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001160</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>geopolitical region</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>geospatial region</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr"/>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr"/>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001160</t>
+          <t>ADDICTO:0001161</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>geopolitical region</t>
+          <t>geospatial region</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
+          <t>A site at or near the surface of the Earth.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>geospatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -2154,23 +2148,23 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001161</t>
+          <t>ADDICTO:0001147</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>geospatial region</t>
+          <t>harm reduction facility</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A site at or near the surface of the Earth.</t>
+          <t>A healthcare facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -2219,23 +2213,23 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001147</t>
+          <t>ADDICTO:0001152</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>harm reduction facility</t>
+          <t>health and social care facility</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+          <t>A facility that provides housing, health care and social care.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -2259,7 +2253,7 @@
       <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
@@ -2282,90 +2276,90 @@
       <c r="W27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001152</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>health and social care facility</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides housing, health care and social care.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OMRSE:00000102</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr"/>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr"/>
-      <c r="W28" s="2" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
+          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2412,225 +2406,225 @@
       <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>OMRSE:00000063</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>hospital facility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001157</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>housing</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides accommodation for people.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr"/>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001157</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>housing</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides accommodation for people.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001156</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>laboratory facility</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S31" s="2" t="inlineStr"/>
-      <c r="T31" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U31" s="2" t="inlineStr">
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr"/>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V31" s="2" t="inlineStr"/>
-      <c r="W31" s="2" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ENVO:00000070</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>construction</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001156</t>
+          <t>ADDICTO:0000449</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>laboratory facility</t>
+          <t>level of economic development</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
+          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
@@ -2641,7 +2635,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
@@ -2674,28 +2672,28 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000449</t>
+          <t>ADDICTO:0001155</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>level of economic development</t>
+          <t>outpatient facility</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
@@ -2706,13 +2704,13 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
+      <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
@@ -2741,99 +2739,93 @@
       <c r="W34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>healthcare facility</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENVO:00002221</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2850,8 +2842,10 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="n">
-        <v>1</v>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2873,260 +2867,199 @@
       <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001158</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>social housing</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>housing</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>To Be Discussed</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001158</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>housing</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>https://languages.oup.com/google-dictionary-en/</t>
-        </is>
-      </c>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" s="2" t="inlineStr"/>
-      <c r="T38" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U38" s="2" t="inlineStr">
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A shop that sells products related to vaping.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>To Be Discussed</t>
         </is>
       </c>
-      <c r="V38" s="2" t="inlineStr"/>
-      <c r="W38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BFO:0000006</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>spatial region</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000440</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>vape shop</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A shop that sells products related to vaping.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr"/>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1092,7 +1092,7 @@
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1360,7 +1360,7 @@
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1395,7 +1395,7 @@
       <c r="S14" s="2" t="inlineStr"/>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -2164,7 +2164,7 @@
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2329,7 +2329,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -2359,7 +2359,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2394,7 +2394,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -2688,7 +2688,7 @@
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -2981,8 +2981,10 @@
           <t>true</t>
         </is>
       </c>
-      <c r="R38" t="n">
-        <v>0</v>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eee8aa"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V2" s="2" t="inlineStr"/>
@@ -638,7 +638,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
@@ -673,7 +673,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
@@ -738,7 +738,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr"/>
@@ -937,7 +937,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that treats and manages addictive disorders.</t>
+          <t>A health care facility that treats and manages addictive disorders.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr"/>
@@ -1289,13 +1289,13 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about the number of alcohol outlets per unit area within a geographical location.</t>
+          <t>A data item that is about the number of alcohol outlets per unit area within a geographical location.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr"/>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that provides services to people who are pregnant and their partners.</t>
+          <t>A health care facility that provides services to people who are pregnant and their partners.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A geopolitical region that delimits a government with effective internal and external sovereignty over the region and its population, and which is not dependent on or subject to any other power or Geopolitical Entity.</t>
+          <t>A geopolitical region with its own government that is recognised as a country recognised in international law.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr"/>
@@ -2016,134 +2016,134 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001160</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SIO:000413</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>geolegal region</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A geographic region which has causal powers conferred by a legal entity.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>geographic region</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SIO:000415</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>geopolitical region</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>geospatial region</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>geolegal region</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr">
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001161</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>geospatial region</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>A site at or near the surface of the Earth.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A healthcare facility that provides harm reduction services to substance users.</t>
+          <t>A health care facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A healthcare facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+          <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2406,69 +2406,73 @@
       <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001157</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>housing</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A facility that provides accommodation for people.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr"/>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BCIO:026015</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hospital outpatient facility</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>hospital facility</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2536,69 +2540,69 @@
       <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001156</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENVO:01001406</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>laboratory facility</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A facility whose purpose is undertaking experiments  or taking measurements under controlled conditions.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" s="2" t="inlineStr"/>
-      <c r="T32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2663,80 +2667,76 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr"/>
       <c r="W33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001155</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>outpatient facility</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A healthcare facility that bears a function to provide low intensity healthcare services to patients on a short-term basis, with patients leaving on the same date as arriving (i.e., without them staying overnight)</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>To Be Discussed</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>OMRSE:00000191</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>residential facility</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2879,18 +2879,18 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Housing that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>housing</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr"/>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A shop that sells products related to vaping.</t>
+          <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>To Be Discussed</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2617,13 +2617,13 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is about amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2540,159 +2546,137 @@
       <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ENVO:01001406</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>laboratory facility</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>research facility</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001249</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is judged.</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>level of economic development</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" s="2" t="inlineStr"/>
-      <c r="T33" s="2" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>important other who is a smoker</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>An important other who is a tobacco smoker.</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr"/>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr"/>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr"/>
+      <c r="R33" s="3" t="inlineStr"/>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V33" s="2" t="inlineStr"/>
-      <c r="W33" s="2" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>ENVO:01001406</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>laboratory facility</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
+          <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2716,7 +2700,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -2739,93 +2723,99 @@
       <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000449</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>level of economic development</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2867,88 +2857,82 @@
       <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001158</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>https://languages.oup.com/google-dictionary-en/</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr"/>
-      <c r="T37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ENVO:00002221</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BFO:0000006</t>
+          <t>BFO:0000029</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2959,7 +2943,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -3003,28 +2987,28 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000440</t>
+          <t>ADDICTO:0001158</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>vape shop</t>
+          <t>social housing</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A shop that primarily sells products related to vaping devices.</t>
+          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>household residence</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
@@ -3035,14 +3019,20 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
       <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="inlineStr"/>
       <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="n">
-        <v>1</v>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3062,6 +3052,134 @@
       </c>
       <c r="V39" s="2" t="inlineStr"/>
       <c r="W39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000440</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>vape shop</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>A shop that primarily sells products related to vaping devices.</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>shop</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr"/>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2590,7 +2590,9 @@
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="R32" s="2" t="n">
         <v>1</v>
       </c>
@@ -2613,274 +2615,274 @@
       <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr"/>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>important other who is a smoker</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>An important other who is a tobacco smoker.</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr"/>
-      <c r="R33" s="3" t="inlineStr"/>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001250</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>important other who smokes</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>An important other who smokes tobacco.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is defined.</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U33" s="3" t="inlineStr">
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>important other who vapes</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>An important other who uses a vaping device.</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U34" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>ENVO:01001406</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>laboratory facility</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000449</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>level of economic development</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Economic_development</t>
         </is>
       </c>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" s="2" t="inlineStr"/>
-      <c r="T35" s="2" t="inlineStr">
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr">
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENVO:00002221</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2897,8 +2899,10 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>1</v>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -2922,28 +2926,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2960,10 +2964,8 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q38" t="n">
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -2985,201 +2987,266 @@
       <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr">
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr"/>
-      <c r="T39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr">
+      <c r="U40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="n">
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="2" t="inlineStr"/>
-      <c r="T41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr"/>
+      <c r="T42" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr">
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2590,8 +2584,10 @@
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="n">
-        <v>0</v>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R32" s="2" t="n">
         <v>1</v>
@@ -2655,8 +2651,10 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="n">
-        <v>0</v>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R33" s="2" t="n">
         <v>1</v>
@@ -2680,49 +2678,73 @@
       <c r="W33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr"/>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001251</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>important other who vapes</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>An important other who uses a vaping device.</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="inlineStr"/>
-      <c r="Q34" s="3" t="inlineStr"/>
-      <c r="R34" s="3" t="inlineStr"/>
-      <c r="S34" s="3" t="inlineStr"/>
-      <c r="T34" s="3" t="inlineStr">
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is defined.</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U34" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V34" s="3" t="inlineStr"/>
-      <c r="W34" s="3" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2722,8 +2728,10 @@
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="n">
-        <v>0</v>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R34" s="2" t="n">
         <v>1</v>
@@ -2881,292 +2889,242 @@
       <c r="W36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001249</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>number of important others in a person's social environment</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the number of important others in a person's environmental system.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>number of important others who smoke tobacco in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U38" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr"/>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>residential facility</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>shop</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>commercial building</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BFO:0000029</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>immaterial entity</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001158</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>social housing</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>household residence</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>https://languages.oup.com/google-dictionary-en/</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" s="2" t="inlineStr"/>
-      <c r="T40" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BFO:0000006</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -3183,10 +3141,8 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q41" t="n">
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3208,67 +3164,266 @@
       <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001158</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>social housing</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>household residence</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>https://languages.oup.com/google-dictionary-en/</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr"/>
+      <c r="W43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BFO:0000006</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="n">
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr"/>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2691,12 +2685,12 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>important other who vapes</t>
+          <t>important other who vapes nicotine</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>An important other who uses a vaping device.</t>
+          <t>An important other who vapes nicotine.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2864,10 +2858,8 @@
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q36" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2929,8 +2921,12 @@
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr"/>
-      <c r="R37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
@@ -2946,94 +2942,126 @@
       <c r="W37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr"/>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001252</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr"/>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U38" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr"/>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001253</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>number of important others who vape nicotine in a person's social environment.</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr"/>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr"/>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr"/>
-      <c r="Q39" s="3" t="inlineStr"/>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr"/>
-      <c r="T39" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U39" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V39" s="3" t="inlineStr"/>
-      <c r="W39" s="3" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2584,10 +2584,8 @@
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q32" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>1</v>
@@ -2638,7 +2636,11 @@
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2651,10 +2653,8 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q33" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>1</v>
@@ -2722,10 +2722,8 @@
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q34" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>1</v>
@@ -2858,8 +2856,10 @@
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="b">
-        <v>1</v>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2921,11 +2921,15 @@
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2" t="n">
-        <v>0</v>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
@@ -2982,11 +2986,15 @@
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R38" s="2" t="n">
-        <v>0</v>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S38" s="2" t="inlineStr"/>
       <c r="T38" s="2" t="inlineStr">
@@ -3043,11 +3051,15 @@
       <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2" t="n">
-        <v>0</v>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2542,7 +2542,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001249</t>
+          <t>ADDICTO:0001280</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -2584,8 +2584,10 @@
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="b">
-        <v>1</v>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R32" s="2" t="n">
         <v>1</v>
@@ -2611,7 +2613,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001250</t>
+          <t>ADDICTO:0001281</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -2653,8 +2655,10 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="b">
-        <v>1</v>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R33" s="2" t="n">
         <v>1</v>
@@ -2680,7 +2684,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001251</t>
+          <t>ADDICTO:0001282</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -2722,8 +2726,10 @@
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="b">
-        <v>1</v>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R34" s="2" t="n">
         <v>1</v>
@@ -2883,7 +2889,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001249</t>
+          <t>ADDICTO:0001283</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2948,7 +2954,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001252</t>
+          <t>ADDICTO:0001284</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -3013,7 +3019,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001253</t>
+          <t>ADDICTO:0001285</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,95 +621,75 @@
       <c r="W2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000441</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>academic emergency department facility</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>An emergency department facility that is part of a university hospital.</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Government Office Region</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A geographic region of which nine cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
+      <c r="P3" s="3" t="inlineStr"/>
+      <c r="Q3" s="3" t="inlineStr"/>
+      <c r="R3" s="3" t="inlineStr"/>
+      <c r="S3" s="3" t="inlineStr"/>
+      <c r="T3" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U3" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V3" s="3" t="inlineStr"/>
+      <c r="W3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000443</t>
+          <t>ADDICTO:0000441</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a product</t>
+          <t>academic emergency department facility</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
+          <t>An emergency department facility that is part of a university hospital.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
@@ -747,17 +733,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000444</t>
+          <t>ADDICTO:0000443</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a service</t>
+          <t>accessibility of a product</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to acquire a product.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
@@ -812,23 +798,23 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001153</t>
+          <t>ADDICTO:0000444</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>accessibility of addiction treatment</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a service in which the service is addiction treatment.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receive a service.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a service</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -852,7 +838,7 @@
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
@@ -877,23 +863,23 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000448</t>
+          <t>ADDICTO:0001153</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>accessibility of alcohol</t>
+          <t>accessibility of addiction treatment</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a product where the product is an alcoholic beverage</t>
+          <t>Accessibility of a service in which the service is addiction treatment.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>accessibility of a product</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -911,17 +897,13 @@
       </c>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>alcohol availability</t>
-        </is>
-      </c>
+      <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
@@ -946,17 +928,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000445</t>
+          <t>ADDICTO:0000448</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>accessibility of heroin</t>
+          <t>accessibility of alcohol</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a product where the product is heroin.</t>
+          <t>Accessibility of a product where the product is an alcoholic beverage</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
@@ -980,7 +962,11 @@
       </c>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>alcohol availability</t>
+        </is>
+      </c>
       <c r="N8" s="2" t="inlineStr"/>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
@@ -1011,23 +997,23 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000446</t>
+          <t>ADDICTO:0000445</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>accessibility of opioid agonist therapy</t>
+          <t>accessibility of heroin</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Accessibility of a service where the service is opioid agonist therapy</t>
+          <t>Accessibility of a product where the product is heroin.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>accessibility of addiction treatment</t>
+          <t>accessibility of a product</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1076,28 +1062,28 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000447</t>
+          <t>ADDICTO:0000446</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>acute medical unit</t>
+          <t>accessibility of opioid agonist therapy</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
+          <t>Accessibility of a service where the service is opioid agonist therapy</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>accessibility of addiction treatment</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
@@ -1108,17 +1094,9 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
-        </is>
-      </c>
+      <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>acute medical ward</t>
-        </is>
-      </c>
+      <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
@@ -1135,7 +1113,7 @@
       <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1149,17 +1127,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001148</t>
+          <t>ADDICTO:0000447</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>addiction clinic</t>
+          <t>acute medical unit</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>A health care facility that treats and manages addictive disorders.</t>
+          <t>A health care facility within a hospital that provides acute medical care for patients that have presented as medical emergencies to a hospital or who have developed an acute medical illness while in hospital.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
@@ -1181,15 +1159,23 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
+        </is>
+      </c>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>acute medical ward</t>
+        </is>
+      </c>
       <c r="N11" s="2" t="inlineStr"/>
       <c r="O11" s="2" t="inlineStr"/>
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
@@ -1214,23 +1200,23 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001149</t>
+          <t>ADDICTO:0001148</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>alcohol outlet</t>
+          <t>addiction clinic</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A facility where some alcoholic beverage can be purchased.</t>
+          <t>A health care facility that treats and manages addictive disorders.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1254,7 +1240,7 @@
       <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
@@ -1265,7 +1251,7 @@
       <c r="S12" s="2" t="inlineStr"/>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1279,28 +1265,28 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001150</t>
+          <t>ADDICTO:0001149</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>alcohol outlet density</t>
+          <t>alcohol outlet</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of alcohol outlets per unit area within a geographical location.</t>
+          <t>A facility where some alcoholic beverage can be purchased.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
@@ -1344,28 +1330,28 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001151</t>
+          <t>ADDICTO:0001150</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>antenatal clinic</t>
+          <t>alcohol outlet density</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A health care facility that provides services to people who are pregnant and their partners.</t>
+          <t>A data item that is about the number of alcohol outlets per unit area within a geographical location.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
@@ -1395,7 +1381,7 @@
       <c r="S14" s="2" t="inlineStr"/>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>RW; JH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1407,90 +1393,90 @@
       <c r="W14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ENVO:00000073</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A permanent walled and roofed construction.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001151</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>antenatal clinic</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>A health care facility that provides services to people who are pregnant and their partners.</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>health care facility</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr"/>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr"/>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr"/>
+      <c r="W15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENVO:01001222</t>
+          <t>ENVO:00000073</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+          <t>A permanent walled and roofed construction.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>human construction</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1539,36 +1525,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENVO:01001813</t>
+          <t>ENVO:01001222</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
+          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
@@ -1606,168 +1588,172 @@
       <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ENVO:01001813</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001159</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>A geopolitical region with its own government that is recognised as a country recognised in international law.</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>geopolitical region</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>http://www.ontologyrepository.com/CommonCoreOntologies/Country</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>Definition taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity.</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr"/>
-      <c r="Q18" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr"/>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1786,7 +1772,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1797,7 +1783,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -1811,37 +1797,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1849,11 +1831,7 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1884,37 +1862,37 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1922,7 +1900,11 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1953,32 +1935,36 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SIO:000414</t>
+          <t>OMRSE:00000062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>geographic region</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
+          <t>An architectural structure that bears some function.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>spatial region</t>
+          <t>site</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
@@ -2018,23 +2004,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SIO:000413</t>
+          <t>SIO:000414</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>geolegal region</t>
+          <t>geographic region</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A geographic region which has causal powers conferred by a legal entity.</t>
+          <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>geographic region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2083,23 +2069,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SIO:000415</t>
+          <t>SIO:000413</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>geopolitical region</t>
+          <t>geolegal region</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
+          <t>A geographic region which has causal powers conferred by a legal entity.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>geolegal region</t>
+          <t>geographic region</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2146,90 +2132,90 @@
       <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A health care facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr"/>
-      <c r="Q26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SIO:000415</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>geopolitical region</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>geolegal region</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr"/>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="inlineStr"/>
-      <c r="W26" s="2" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001152</t>
+          <t>ADDICTO:0001147</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>harm reduction facility</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A facility that provides housing, health care and social care.</t>
+          <t>A health care facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -2253,7 +2239,7 @@
       <c r="P27" s="2" t="inlineStr"/>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
@@ -2264,7 +2250,7 @@
       <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -2276,90 +2262,90 @@
       <c r="W27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001152</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>health and social care facility</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides housing, health care and social care.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr"/>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2408,23 +2394,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hospital outpatient facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2442,11 +2428,7 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -2477,23 +2459,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENVO:00000070</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>human construction</t>
+          <t>hospital outpatient facility</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2511,13 +2493,17 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2528,7 +2514,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -2540,96 +2526,90 @@
       <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001280</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>important other</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Because it depends on how the term 'important' is judged.</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001281</t>
+          <t>ADDICTO:0001280</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>important other who smokes</t>
+          <t>important other</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>An important other who smokes tobacco.</t>
+          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>important other</t>
+          <t>person</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2640,7 +2620,7 @@
       <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr"/>
@@ -2665,7 +2645,7 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>Because it depends on how the term 'important' is defined.</t>
+          <t>Because it depends on how the term 'important' is judged.</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
@@ -2684,17 +2664,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001282</t>
+          <t>ADDICTO:0001281</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>important other who vapes nicotine</t>
+          <t>important other who smokes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>An important other who vapes nicotine.</t>
+          <t>An important other who smokes tobacco.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -2711,7 +2691,7 @@
       <c r="G34" s="2" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr"/>
@@ -2753,153 +2733,155 @@
       <c r="W34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001282</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>important other who vapes nicotine</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>An important other who vapes nicotine.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is defined.</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>ENVO:01001406</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>laboratory facility</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>level of economic development</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001283</t>
+          <t>ADDICTO:0000449</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>number of important others in a person's social environment</t>
+          <t>level of economic development</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others in a person's environmental system.</t>
+          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2921,7 +2903,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="2" t="inlineStr"/>
@@ -2954,17 +2940,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001284</t>
+          <t>ADDICTO:0001283</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>number of important others who smoke tobacco in a person's social environment.</t>
+          <t>number of important others in a person's social environment</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
+          <t>A data item that is the number of important others in a person's environmental system.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
@@ -3019,17 +3005,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001285</t>
+          <t>ADDICTO:0001284</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>number of important others who vape nicotine in a person's social environment.</t>
+          <t>number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
+          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -3082,95 +3068,95 @@
       <c r="W39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>facility</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001285</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr"/>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr"/>
+      <c r="W40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENVO:00002221</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -3187,8 +3173,10 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1</v>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3212,28 +3200,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3250,10 +3238,8 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q42" t="n">
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3275,201 +3261,266 @@
       <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr">
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="n">
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" s="2" t="inlineStr"/>
-      <c r="T45" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U45" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr"/>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
+      <c r="W46" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -621,49 +615,65 @@
       <c r="W2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001325</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Government Office Region</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A geographic region of which nine cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="3" t="inlineStr"/>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="inlineStr"/>
-      <c r="P3" s="3" t="inlineStr"/>
-      <c r="Q3" s="3" t="inlineStr"/>
-      <c r="R3" s="3" t="inlineStr"/>
-      <c r="S3" s="3" t="inlineStr"/>
-      <c r="T3" s="3" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U3" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V3" s="3" t="inlineStr"/>
-      <c r="W3" s="3" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>A geographical region of which nine cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>geographical region</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>https://www.ons.gov.uk/methodology/geography/ukgeographies/administrativegeography/england#regions</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -627,18 +627,18 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A geographical region of which nine cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
+          <t>A data item that is about one of nine geographical regions that cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>geographical region</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
@@ -659,8 +659,12 @@
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr">
         <is>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -627,18 +627,18 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about one of nine geographical regions that cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
+          <t>A within country location that is one of nine geographical regions that cover the country of England: North East, North West, Yorkshire, East Midlands, West Midlands, London, South East, East of England and South West.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>within-country location</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
@@ -659,11 +659,15 @@
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>0</v>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3540,6 +3540,63 @@
       <c r="V46" s="2" t="inlineStr"/>
       <c r="W46" s="2" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BCIO:026002</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>within-country location</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A geographical location within a country where the intervention takes place.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>geographical location</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ebfad0"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1491,7 +1497,6 @@
           <t>A permanent walled and roofed construction.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>human construction</t>
@@ -1502,20 +1507,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>true</t>
@@ -1526,7 +1522,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1537,8 +1532,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1556,7 +1549,6 @@
           <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>building</t>
@@ -1567,20 +1559,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>true</t>
@@ -1591,7 +1574,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1602,8 +1584,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1621,7 +1601,6 @@
           <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>material entity</t>
@@ -1632,24 +1611,16 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>true</t>
@@ -1660,7 +1631,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1671,8 +1641,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1763,7 +1731,6 @@
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -1774,20 +1741,11 @@
           <t>object</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1798,7 +1756,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1809,8 +1766,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1828,7 +1783,6 @@
           <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>disposition</t>
@@ -1839,20 +1793,11 @@
           <t>disposition</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>true</t>
@@ -1863,7 +1808,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1874,8 +1818,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1893,7 +1835,6 @@
           <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>system</t>
@@ -1904,8 +1845,6 @@
           <t>System</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>environmental disposition</t>
@@ -1916,16 +1855,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>true</t>
@@ -1936,7 +1870,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1947,8 +1880,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1966,7 +1897,6 @@
           <t>An architectural structure that bears some function.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>site</t>
@@ -1977,24 +1907,16 @@
           <t>site</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>true</t>
@@ -2005,7 +1927,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2016,8 +1937,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2035,7 +1954,6 @@
           <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>spatial region</t>
@@ -2046,20 +1964,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>true</t>
@@ -2070,7 +1979,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2081,8 +1989,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2100,7 +2006,6 @@
           <t>A geographic region which has causal powers conferred by a legal entity.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>geographic region</t>
@@ -2111,20 +2016,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>true</t>
@@ -2135,7 +2031,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2146,8 +2041,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2165,7 +2058,6 @@
           <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>geolegal region</t>
@@ -2176,20 +2068,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>true</t>
@@ -2200,7 +2083,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2211,8 +2093,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2360,7 +2240,6 @@
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>facility</t>
@@ -2371,20 +2250,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>0</t>
@@ -2395,7 +2265,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2406,8 +2275,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2425,7 +2292,6 @@
           <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -2436,20 +2302,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2460,7 +2317,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2471,8 +2327,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2490,7 +2344,6 @@
           <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>hospital facility</t>
@@ -2501,24 +2354,16 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>outpatient clinic</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2529,7 +2374,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2540,8 +2384,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2559,7 +2401,6 @@
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>construction</t>
@@ -2570,20 +2411,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>true</t>
@@ -2594,7 +2426,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2605,8 +2436,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2837,7 +2666,6 @@
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>research facility</t>
@@ -2848,20 +2676,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2872,7 +2691,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2883,8 +2701,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -3166,7 +2982,6 @@
           <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>facility</t>
@@ -3177,20 +2992,11 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
           <t>true</t>
@@ -3201,7 +3007,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3212,8 +3017,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3231,7 +3034,6 @@
           <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>commercial building</t>
@@ -3242,20 +3044,11 @@
           <t>object</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
@@ -3264,7 +3057,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3275,8 +3067,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3294,7 +3084,6 @@
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3305,20 +3094,11 @@
           <t>site</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
           <t>true</t>
@@ -3329,7 +3109,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3340,77 +3119,75 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr"/>
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="inlineStr">
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr"/>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" s="3" t="inlineStr"/>
+      <c r="T44" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U44" s="3" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="V44" s="3" t="inlineStr"/>
+      <c r="W44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3428,7 +3205,6 @@
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3439,20 +3215,11 @@
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
           <t>true</t>
@@ -3463,7 +3230,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3474,8 +3240,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3556,7 +3320,6 @@
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>geographical location</t>
@@ -3567,23 +3330,11 @@
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3594,8 +3345,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1497,6 +1497,7 @@
           <t>A permanent walled and roofed construction.</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>human construction</t>
@@ -1507,11 +1508,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>true</t>
@@ -1522,6 +1532,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1532,6 +1543,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1549,6 +1562,7 @@
           <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>building</t>
@@ -1559,11 +1573,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t>true</t>
@@ -1574,6 +1597,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1584,6 +1608,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1601,6 +1627,7 @@
           <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>material entity</t>
@@ -1611,16 +1638,24 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t>true</t>
@@ -1631,6 +1666,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1641,6 +1677,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1731,6 +1769,7 @@
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -1741,11 +1780,20 @@
           <t>object</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1756,6 +1804,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>JH; RW</t>
@@ -1766,6 +1815,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1783,6 +1834,7 @@
           <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>disposition</t>
@@ -1793,11 +1845,20 @@
           <t>disposition</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t>true</t>
@@ -1808,6 +1869,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1818,6 +1880,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1835,6 +1899,7 @@
           <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>system</t>
@@ -1845,6 +1910,8 @@
           <t>System</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>environmental disposition</t>
@@ -1855,11 +1922,16 @@
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t>true</t>
@@ -1870,6 +1942,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1880,6 +1953,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1897,6 +1972,7 @@
           <t>An architectural structure that bears some function.</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>site</t>
@@ -1907,16 +1983,24 @@
           <t>site</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t>true</t>
@@ -1927,6 +2011,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1937,6 +2022,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1954,6 +2041,7 @@
           <t>A spatial region whose boundaries are typically defined against some material frame of reference (like the earth).</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>spatial region</t>
@@ -1964,11 +2052,20 @@
           <t>spatial region</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t>true</t>
@@ -1979,6 +2076,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>RW</t>
@@ -1989,6 +2087,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2006,6 +2106,7 @@
           <t>A geographic region which has causal powers conferred by a legal entity.</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>geographic region</t>
@@ -2016,11 +2117,20 @@
           <t>spatial region</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t>true</t>
@@ -2031,6 +2141,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2041,6 +2152,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2058,6 +2171,7 @@
           <t>A geospatial region that delimits the authority of a formally constituted government to exercise its control within the bounded area.</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>geolegal region</t>
@@ -2068,11 +2182,20 @@
           <t>spatial region</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t>true</t>
@@ -2083,6 +2206,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2093,6 +2217,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -2240,6 +2366,7 @@
           <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>facility</t>
@@ -2250,11 +2377,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>0</t>
@@ -2265,6 +2401,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2275,6 +2412,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2292,6 +2431,7 @@
           <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>health care facility</t>
@@ -2302,11 +2442,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2317,6 +2466,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2327,6 +2477,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2344,6 +2496,7 @@
           <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>hospital facility</t>
@@ -2354,16 +2507,24 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>outpatient clinic</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>0</t>
@@ -2374,6 +2535,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>RW; JH</t>
@@ -2384,6 +2546,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2401,6 +2565,7 @@
           <t>A construction that has been assembled by deliberate human effort.</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>construction</t>
@@ -2411,11 +2576,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t>true</t>
@@ -2426,6 +2600,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2436,6 +2611,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2666,6 +2843,7 @@
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>research facility</t>
@@ -2676,11 +2854,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2691,6 +2878,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>RW</t>
@@ -2701,6 +2889,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2982,6 +3172,7 @@
           <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>facility</t>
@@ -2992,11 +3183,20 @@
           <t>material entity</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
           <t>true</t>
@@ -3007,6 +3207,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3017,6 +3218,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3034,6 +3237,7 @@
           <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>commercial building</t>
@@ -3044,11 +3248,20 @@
           <t>object</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
@@ -3057,6 +3270,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3067,6 +3281,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3084,6 +3300,7 @@
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3094,11 +3311,20 @@
           <t>site</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
           <t>true</t>
@@ -3109,6 +3335,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3119,6 +3346,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -3205,6 +3434,7 @@
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>immaterial entity</t>
@@ -3215,11 +3445,20 @@
           <t>spatial region</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
           <t>true</t>
@@ -3230,6 +3469,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
           <t>RW</t>
@@ -3240,6 +3480,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -3320,9 +3562,10 @@
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>geographical location</t>
+          <t>geographic location</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3330,14 +3573,30 @@
           <t>immaterial entity</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
           <t>Environmental system</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; BG</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -3345,6 +3604,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -2642,11 +2642,7 @@
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
+      <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2713,11 +2709,7 @@
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
+      <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr">
         <is>
@@ -2784,11 +2776,7 @@
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
+      <c r="H35" s="2" t="inlineStr"/>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr">
         <is>
@@ -3587,11 +3575,15 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1693,13 +1693,13 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A geopolitical region with its own government that is recognised as a country recognised in international law.</t>
+          <t>A spatial region that has a government and is recognised as a country in international law.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>geopolitical region</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1975,12 +1975,12 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>architectural structure</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2621,69 +2627,77 @@
       <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ENVO:01001406</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001372</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>laboratory facility</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr"/>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" s="3" t="inlineStr"/>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>A new class has been defined because the ENOVO class has  incompatible parentage.</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr"/>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>ENVO:01001406 laboratory facility</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr"/>
+      <c r="P33" s="3" t="inlineStr"/>
+      <c r="Q33" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" s="3" t="inlineStr"/>
+      <c r="T33" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V33" s="3" t="inlineStr"/>
+      <c r="W33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -3143,73 +3157,73 @@
       <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr"/>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr"/>
+      <c r="H41" s="4" t="inlineStr"/>
+      <c r="I41" s="4" t="inlineStr"/>
+      <c r="J41" s="4" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" s="4" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr"/>
-      <c r="Q41" s="3" t="inlineStr">
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="3" t="inlineStr"/>
-      <c r="T41" s="3" t="inlineStr">
+      <c r="R41" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" s="4" t="inlineStr"/>
+      <c r="T41" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U41" s="3" t="inlineStr">
+      <c r="U41" s="4" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="V41" s="3" t="inlineStr"/>
-      <c r="W41" s="3" t="inlineStr"/>
+      <c r="V41" s="4" t="inlineStr"/>
+      <c r="W41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2964,95 +2964,91 @@
       <c r="W37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>OMRSE:00000191</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>residential facility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001373</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>research facility</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>A facility where scientific research or measurements can be undertaken.</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>This class refers to research facilities that are architectural structures and not ones that are mobile. This is because it comes under OMRSE's class 'facility'. ENVO has a broader class.</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="3" t="inlineStr"/>
+      <c r="P38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="inlineStr"/>
+      <c r="R38" s="3" t="inlineStr"/>
+      <c r="S38" s="3" t="inlineStr"/>
+      <c r="T38" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
+      <c r="U38" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V38" s="3" t="inlineStr"/>
+      <c r="W38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENVO:00002221</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>object</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -3069,8 +3065,10 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="n">
-        <v>1</v>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3094,28 +3092,28 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BFO:0000029</t>
+          <t>ENVO:00002221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+          <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>immaterial entity</t>
+          <t>commercial building</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -3132,10 +3130,8 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
+      <c r="Q40" t="n">
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3157,266 +3153,331 @@
       <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BFO:0000029</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>immaterial entity</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr"/>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr"/>
+      <c r="E42" s="4" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr"/>
-      <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="4" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" s="4" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" s="4" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L41" s="4" t="inlineStr"/>
-      <c r="M41" s="4" t="inlineStr"/>
-      <c r="N41" s="4" t="inlineStr"/>
-      <c r="O41" s="4" t="inlineStr"/>
-      <c r="P41" s="4" t="inlineStr"/>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr"/>
+      <c r="P42" s="4" t="inlineStr"/>
+      <c r="Q42" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" s="4" t="inlineStr"/>
-      <c r="T41" s="4" t="inlineStr">
+      <c r="R42" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" s="4" t="inlineStr"/>
+      <c r="T42" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U41" s="4" t="inlineStr">
+      <c r="U42" s="4" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="V41" s="4" t="inlineStr"/>
-      <c r="W41" s="4" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="V42" s="4" t="inlineStr"/>
+      <c r="W42" s="4" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr">
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="n">
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
+      <c r="M44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" s="2" t="inlineStr"/>
-      <c r="T43" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr"/>
+      <c r="T44" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr">
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="V44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>BCIO:026002</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>within-country location</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>geographic location</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
         <is>
           <t>RW; BG</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -1488,134 +1488,134 @@
       <c r="W15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ENVO:00000073</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001374</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A permanent walled and roofed construction.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>human construction</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>An architectural structure with walls and a roof.</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr"/>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr"/>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr"/>
+      <c r="L16" s="3" t="inlineStr"/>
+      <c r="M16" s="3" t="inlineStr"/>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="3" t="inlineStr"/>
+      <c r="P16" s="3" t="inlineStr"/>
+      <c r="Q16" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="U16" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V16" s="3" t="inlineStr"/>
+      <c r="W16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ENVO:01001222</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001375</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>commercial building</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr"/>
+      <c r="H17" s="3" t="inlineStr"/>
+      <c r="I17" s="3" t="inlineStr"/>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr"/>
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr"/>
+      <c r="N17" s="3" t="inlineStr"/>
+      <c r="O17" s="3" t="inlineStr"/>
+      <c r="P17" s="3" t="inlineStr"/>
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" s="3" t="inlineStr"/>
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
+      <c r="U17" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V17" s="3" t="inlineStr"/>
+      <c r="W17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3008,8 +3008,12 @@
       <c r="N38" s="3" t="inlineStr"/>
       <c r="O38" s="3" t="inlineStr"/>
       <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="inlineStr"/>
-      <c r="R38" s="3" t="inlineStr"/>
+      <c r="Q38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="S38" s="3" t="inlineStr"/>
       <c r="T38" s="3" t="inlineStr">
         <is>
@@ -3090,67 +3094,67 @@
       <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>ENVO:00002221</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001376</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>commercial building</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr"/>
+      <c r="Q40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
+      <c r="R40" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" s="3" t="inlineStr"/>
+      <c r="T40" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V40" s="3" t="inlineStr"/>
+      <c r="W40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">

--- a/inputs/AddictO_Environmental_system_Defs.xlsx
+++ b/inputs/AddictO_Environmental_system_Defs.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1488,90 +1488,82 @@
       <c r="W15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001374</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>An architectural structure with walls and a roof.</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OMRSE:00000061</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>architectural structure</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A material entity that is a human made structure with firm connection between its foundation and the ground.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr"/>
-      <c r="H16" s="3" t="inlineStr"/>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" s="3" t="inlineStr"/>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U16" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="V16" s="3" t="inlineStr"/>
-      <c r="W16" s="3" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>ADDICTO:0001375</t>
+          <t>ADDICTO:0001374</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>commercial building</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+          <t>An architectural structure with walls and a roof.</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>architectural structure</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1618,237 +1610,237 @@
       <c r="W17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001375</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>commercial building</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>A building which is primarily used to facilitate the buying or selling of goods or services.</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr"/>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" s="3" t="inlineStr"/>
+      <c r="T18" s="3" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U18" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="V18" s="3" t="inlineStr"/>
+      <c r="W18" s="3" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>ENVO:01001813</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>construction</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>A material entity which has been assembled through the intentional, instinctual, or deliberately programmed efforts of an organism or machine.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001159</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>A spatial region that has a government and is recognised as a country in international law.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>http://www.ontologyrepository.com/CommonCoreOntologies/Country</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Definition taken from the VIDO ontology but this does not have appropriate codes so we have created a separate entity.</t>
         </is>
       </c>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
-      <c r="Q19" s="2" t="inlineStr">
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr"/>
-      <c r="T19" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr">
+      <c r="U20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>OMRSE:00000114</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>emergency department facility</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>JH; RW</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>OMRSE:00000114</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>emergency department facility</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>object</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1867,7 +1859,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1878,7 +1870,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JH; RW</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -1892,37 +1884,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A system which has the disposition to environ one or more material entities.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>System</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -1930,11 +1918,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>environment</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -1965,37 +1949,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OMRSE:00000062</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An architectural structure that bears some function.</t>
+          <t>A system which has the disposition to environ one or more material entities.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>architectural structure</t>
+          <t>system</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>System</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>Environmental system</t>
@@ -2003,7 +1987,11 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -2032,90 +2020,94 @@
       <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001147</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>harm reduction facility</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A health care facility that provides harm reduction services to substance users.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr"/>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OMRSE:00000062</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>facility</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>An architectural structure that bears some function.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>architectural structure</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr"/>
-      <c r="Q24" s="2" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001152</t>
+          <t>ADDICTO:0001147</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>health and social care facility</t>
+          <t>harm reduction facility</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A facility that provides housing, health care and social care.</t>
+          <t>A health care facility that provides harm reduction services to substance users.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -2139,7 +2131,7 @@
       <c r="P25" s="2" t="inlineStr"/>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
@@ -2150,7 +2142,7 @@
       <c r="S25" s="2" t="inlineStr"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -2162,90 +2154,90 @@
       <c r="W25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>OMRSE:00000102</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>health care facility</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001152</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>health and social care facility</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A facility that provides housing, health care and social care.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>RW; JH</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr"/>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr"/>
+      <c r="W26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
+          <t>A facility that is administered by a health care organization for the purpose of providing health care to a patient or patient population.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>health care facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2294,23 +2286,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026015</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hospital outpatient clinic facility</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
+          <t>A health care facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>health care facility</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2328,11 +2320,7 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>outpatient clinic</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -2363,23 +2351,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENVO:00000070</t>
+          <t>BCIO:026015</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>human construction</t>
+          <t>hospital outpatient clinic facility</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A construction that has been assembled by deliberate human effort.</t>
+          <t>A hospital facility to treat patients without them staying overnight, often after a hospital visit.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2397,13 +2385,17 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>outpatient clinic</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2414,7 +2406,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
@@ -2426,92 +2418,90 @@
       <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001280</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>important other</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>object</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ENVO:00000070</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>human construction</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A construction that has been assembled by deliberate human effort.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>Because it depends on how the term 'important' is judged.</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001281</t>
+          <t>ADDICTO:0001280</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>important other who smokes</t>
+          <t>important other</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An important other who smokes tobacco.</t>
+          <t>A person with whom someone has a sufficiently close relationship that they are willing to discuss important matters.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>important other</t>
+          <t>person</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2543,7 +2533,7 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>Because it depends on how the term 'important' is defined.</t>
+          <t>Because it depends on how the term 'important' is judged.</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
@@ -2562,17 +2552,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001282</t>
+          <t>ADDICTO:0001281</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>important other who vapes nicotine</t>
+          <t>important other who smokes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>An important other who vapes nicotine.</t>
+          <t>An important other who smokes tobacco.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -2627,161 +2617,159 @@
       <c r="W32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001282</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>important other who vapes nicotine</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>An important other who vapes nicotine.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>important other</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Because it depends on how the term 'important' is defined.</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr"/>
+      <c r="W33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001372</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>laboratory facility</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A research facility in which systems of manufactured products control internal conditions and in which scientific or technological research, experiments, and measurement may be performed.</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="inlineStr"/>
+      <c r="I34" s="3" t="inlineStr"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr">
         <is>
           <t>A new class has been defined because the ENOVO class has  incompatible parentage.</t>
         </is>
       </c>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr">
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr">
         <is>
           <t>ENVO:01001406 laboratory facility</t>
         </is>
       </c>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="inlineStr"/>
-      <c r="Q33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" s="3" t="inlineStr"/>
-      <c r="T33" s="3" t="inlineStr">
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U33" s="3" t="inlineStr">
+      <c r="U34" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V33" s="3" t="inlineStr"/>
-      <c r="W33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000449</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>level of economic development</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>https://en.wikipedia.org/wiki/Economic_development</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001283</t>
+          <t>ADDICTO:0000449</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>number of important others in a person's social environment</t>
+          <t>level of economic development</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others in a person's environmental system.</t>
+          <t>A data item that is about the amount and quality of human and physical resources available to the inhabitants of a geospatial region.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2803,7 +2791,11 @@
           <t>Environmental system</t>
         </is>
       </c>
-      <c r="K35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Economic_development</t>
+        </is>
+      </c>
       <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr"/>
       <c r="N35" s="2" t="inlineStr"/>
@@ -2836,17 +2828,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001284</t>
+          <t>ADDICTO:0001283</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>number of important others who smoke tobacco in a person's social environment.</t>
+          <t>number of important others in a person's social environment</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
+          <t>A data item that is the number of important others in a person's environmental system.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2901,17 +2893,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0001285</t>
+          <t>ADDICTO:0001284</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>number of important others who vape nicotine in a person's social environment.</t>
+          <t>number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
+          <t>A data item that is the number of important others who smoke tobacco in a person's social environment.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -2964,524 +2956,593 @@
       <c r="W37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001285</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is the number of important others who vape nicotine in a person's social environment.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr"/>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001373</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>A facility where scientific research or measurements can be undertaken.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr"/>
-      <c r="J38" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr"/>
-      <c r="L38" s="3" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr">
         <is>
           <t>This class refers to research facilities that are architectural structures and not ones that are mobile. This is because it comes under OMRSE's class 'facility'. ENVO has a broader class.</t>
         </is>
       </c>
-      <c r="M38" s="3" t="inlineStr"/>
-      <c r="N38" s="3" t="inlineStr"/>
-      <c r="O38" s="3" t="inlineStr"/>
-      <c r="P38" s="3" t="inlineStr"/>
-      <c r="Q38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="3" t="inlineStr"/>
-      <c r="T38" s="3" t="inlineStr">
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr"/>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S39" s="3" t="inlineStr"/>
+      <c r="T39" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U38" s="3" t="inlineStr">
+      <c r="U39" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V38" s="3" t="inlineStr"/>
-      <c r="W38" s="3" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="V39" s="3" t="inlineStr"/>
+      <c r="W39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>residential facility</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>ADDICTO:0001376</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>A commercial building in which a business presents a selection of goods and offers to trade or sell them to customers for money or other goods.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr"/>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>commercial building</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F41" s="3" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr"/>
-      <c r="Q40" s="3" t="n">
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr"/>
+      <c r="Q41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R40" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" s="3" t="inlineStr"/>
-      <c r="T40" s="3" t="inlineStr">
+      <c r="R41" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S41" s="3" t="inlineStr"/>
+      <c r="T41" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U40" s="3" t="inlineStr">
+      <c r="U41" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="V40" s="3" t="inlineStr"/>
-      <c r="W40" s="3" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="V41" s="3" t="inlineStr"/>
+      <c r="W41" s="3" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>BFO:0000029</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr">
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0001158</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>social housing</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t>A household residence that is provided for people on low incomes or with particular needs by government agencies or non-profit organizations.</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr"/>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr"/>
+      <c r="E43" s="4" t="inlineStr">
         <is>
           <t>household residence</t>
         </is>
       </c>
-      <c r="F42" s="4" t="inlineStr">
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr"/>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr"/>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K42" s="4" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="4" t="inlineStr"/>
+      <c r="J43" s="4" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K43" s="4" t="inlineStr">
         <is>
           <t>https://languages.oup.com/google-dictionary-en/</t>
         </is>
       </c>
-      <c r="L42" s="4" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr"/>
-      <c r="O42" s="4" t="inlineStr"/>
-      <c r="P42" s="4" t="inlineStr"/>
-      <c r="Q42" s="4" t="inlineStr">
+      <c r="L43" s="4" t="inlineStr"/>
+      <c r="M43" s="4" t="inlineStr"/>
+      <c r="N43" s="4" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr"/>
+      <c r="P43" s="4" t="inlineStr"/>
+      <c r="Q43" s="4" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R42" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="4" t="inlineStr"/>
-      <c r="T42" s="4" t="inlineStr">
+      <c r="R43" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S43" s="4" t="inlineStr"/>
+      <c r="T43" s="4" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U42" s="4" t="inlineStr">
+      <c r="U43" s="4" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="V42" s="4" t="inlineStr"/>
-      <c r="W42" s="4" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="V43" s="4" t="inlineStr"/>
+      <c r="W43" s="4" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>A continuant entity that is a continuant_part_of spaceR as defined relative to some frame R</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr">
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000440</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>vape shop</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>A shop that primarily sells products related to vaping devices.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr">
         <is>
           <t>object</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr"/>
-      <c r="Q44" s="2" t="n">
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr"/>
-      <c r="T44" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr"/>
+      <c r="T45" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr">
+      <c r="U45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="V45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>BCIO:026002</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>within-country location</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>geographic location</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Environmental system</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Environmental system</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
         <is>
           <t>RW; BG</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
